--- a/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.792960657984224</v>
+        <v>3.792960657984111</v>
       </c>
       <c r="C2">
-        <v>1.687800453365924</v>
+        <v>1.687800453365696</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5280916914694984</v>
+        <v>0.5280916914694842</v>
       </c>
       <c r="F2">
-        <v>2.778958956602509</v>
+        <v>2.778958956602537</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.150930744522185</v>
+        <v>1.150930744522171</v>
       </c>
       <c r="I2">
-        <v>0.3201444056126093</v>
+        <v>0.3201444056126448</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.260107930289564</v>
+        <v>3.260107930289507</v>
       </c>
       <c r="C3">
-        <v>1.445377246505586</v>
+        <v>1.445377246506041</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4556582095603829</v>
+        <v>0.4556582095603758</v>
       </c>
       <c r="F3">
-        <v>2.387979130065702</v>
+        <v>2.38797913006573</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>1.024570975090668</v>
       </c>
       <c r="I3">
-        <v>0.278510888288416</v>
+        <v>0.2785108882884231</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.939072405746231</v>
+        <v>2.939072405746515</v>
       </c>
       <c r="C4">
-        <v>1.300045340005852</v>
+        <v>1.300045340005965</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4119180828396125</v>
+        <v>0.4119180828396054</v>
       </c>
       <c r="F4">
-        <v>2.154924904410279</v>
+        <v>2.154924904410294</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9514976383523219</v>
+        <v>0.9514976383523077</v>
       </c>
       <c r="I4">
-        <v>0.2543404040006862</v>
+        <v>0.2543404040007147</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>2.809525032446459</v>
       </c>
       <c r="C5">
-        <v>1.241556060797279</v>
+        <v>1.241556060797507</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3942434322049166</v>
+        <v>0.3942434322049451</v>
       </c>
       <c r="F5">
         <v>2.061459513000997</v>
@@ -567,16 +567,16 @@
         <v>2.788083732529685</v>
       </c>
       <c r="C6">
-        <v>1.231884288779497</v>
+        <v>1.231884288779781</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3913166770388727</v>
+        <v>0.3913166770388656</v>
       </c>
       <c r="F6">
-        <v>2.046023659843172</v>
+        <v>2.046023659843144</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0.9179874960199257</v>
       </c>
       <c r="I6">
-        <v>0.2432231469634587</v>
+        <v>0.24322314696348</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.937320442508565</v>
+        <v>2.937320442508678</v>
       </c>
       <c r="C7">
-        <v>1.299253743547467</v>
+        <v>1.299253743547581</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4116791528141945</v>
+        <v>0.4116791528141803</v>
       </c>
       <c r="F7">
-        <v>2.153658617554839</v>
+        <v>2.153658617554854</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.9511055787404246</v>
+        <v>0.9511055787404104</v>
       </c>
       <c r="I7">
-        <v>0.2542104699218015</v>
+        <v>0.2542104699218157</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,25 +643,25 @@
         <v>3.60778833725459</v>
       </c>
       <c r="C8">
-        <v>1.603386961802357</v>
+        <v>1.60338696180213</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5029418592895567</v>
+        <v>0.5029418592895354</v>
       </c>
       <c r="F8">
-        <v>2.642530635235858</v>
+        <v>2.642530635235886</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.10633409151869</v>
+        <v>1.106334091518718</v>
       </c>
       <c r="I8">
-        <v>0.3054685550688419</v>
+        <v>0.3054685550688347</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>4.985289794669825</v>
       </c>
       <c r="C9">
-        <v>2.235585653848545</v>
+        <v>2.235585653848091</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6895721268860839</v>
+        <v>0.6895721268861053</v>
       </c>
       <c r="F9">
-        <v>3.67018688356444</v>
+        <v>3.670186883564412</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>1.453999221881588</v>
       </c>
       <c r="I9">
-        <v>0.4196365619108775</v>
+        <v>0.4196365619108846</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>6.05897079205829</v>
       </c>
       <c r="C10">
-        <v>2.735096923098183</v>
+        <v>2.735096923097728</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.8344392316163152</v>
+        <v>0.834439231616301</v>
       </c>
       <c r="F10">
         <v>4.489371599212291</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.748193006721237</v>
+        <v>1.748193006721252</v>
       </c>
       <c r="I10">
-        <v>0.5162292953178564</v>
+        <v>0.5162292953177996</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.567442562605152</v>
+        <v>6.567442562605208</v>
       </c>
       <c r="C11">
-        <v>2.973719083577123</v>
+        <v>2.973719083577521</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.763571922983431</v>
+        <v>6.763571922983544</v>
       </c>
       <c r="C12">
-        <v>3.066118094704336</v>
+        <v>3.066118094704393</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9292896498678687</v>
+        <v>0.9292896498678402</v>
       </c>
       <c r="F12">
         <v>5.034491354838934</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1.95123981841499</v>
+        <v>1.951239818415033</v>
       </c>
       <c r="I12">
-        <v>0.5830875711670345</v>
+        <v>0.58308757116707</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.721159848344087</v>
+        <v>6.72115984834403</v>
       </c>
       <c r="C13">
-        <v>3.046120337920001</v>
+        <v>3.046120337920058</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9235845800808846</v>
+        <v>0.923584580080842</v>
       </c>
       <c r="F13">
         <v>5.001520733107412</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1.93880320119338</v>
+        <v>1.938803201193366</v>
       </c>
       <c r="I13">
-        <v>0.5789862250689808</v>
+        <v>0.5789862250689382</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.583501900407725</v>
+        <v>6.583501900407953</v>
       </c>
       <c r="C14">
-        <v>2.981277351745916</v>
+        <v>2.981277351746201</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9050638767615879</v>
+        <v>0.9050638767616306</v>
       </c>
       <c r="F14">
         <v>4.894644272520821</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1.898624724964861</v>
+        <v>1.898624724964847</v>
       </c>
       <c r="I14">
-        <v>0.5657421807226299</v>
+        <v>0.5657421807226442</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>6.499672271316797</v>
       </c>
       <c r="C15">
-        <v>2.941837935843694</v>
+        <v>2.941837935843409</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.8937825532367185</v>
+        <v>0.8937825532367469</v>
       </c>
       <c r="F15">
         <v>4.82966329425372</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1.874298304470315</v>
+        <v>1.874298304470329</v>
       </c>
       <c r="I15">
-        <v>0.5577277652788553</v>
+        <v>0.5577277652788766</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.02620083835825</v>
+        <v>6.026200838358534</v>
       </c>
       <c r="C16">
-        <v>2.719763873834438</v>
+        <v>2.719763873834324</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.8300240098623988</v>
+        <v>0.8300240098623846</v>
       </c>
       <c r="F16">
         <v>4.464158386266206</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.738937058617765</v>
+        <v>1.738937058617779</v>
       </c>
       <c r="I16">
-        <v>0.5131862071559041</v>
+        <v>0.5131862071559183</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.741329199461404</v>
+        <v>5.741329199461291</v>
       </c>
       <c r="C17">
-        <v>2.586704765158004</v>
+        <v>2.586704765157776</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.7916264870873988</v>
+        <v>0.7916264870873562</v>
       </c>
       <c r="F17">
-        <v>4.245520335101673</v>
+        <v>4.245520335101702</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.659193491506315</v>
+        <v>1.659193491506286</v>
       </c>
       <c r="I17">
-        <v>0.4869825332103659</v>
+        <v>0.4869825332103304</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>5.579316219775194</v>
       </c>
       <c r="C18">
-        <v>2.511216593324946</v>
+        <v>2.511216593325173</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.7697759191786133</v>
+        <v>0.7697759191786702</v>
       </c>
       <c r="F18">
-        <v>4.121617934324291</v>
+        <v>4.121617934324263</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.614424108718339</v>
+        <v>1.614424108718353</v>
       </c>
       <c r="I18">
-        <v>0.4722808209228546</v>
+        <v>0.4722808209228972</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.524758053649407</v>
+        <v>5.524758053649464</v>
       </c>
       <c r="C19">
-        <v>2.485826065367235</v>
+        <v>2.485826065367519</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.7624154891833399</v>
+        <v>0.7624154891833541</v>
       </c>
       <c r="F19">
         <v>4.079967161689012</v>
@@ -1079,7 +1079,7 @@
         <v>1.599444324961738</v>
       </c>
       <c r="I19">
-        <v>0.4673629347902022</v>
+        <v>0.467362934790188</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.771459483085891</v>
+        <v>5.771459483085948</v>
       </c>
       <c r="C20">
-        <v>2.600758469816356</v>
+        <v>2.600758469816469</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.795689073254934</v>
+        <v>0.7956890732549056</v>
       </c>
       <c r="F20">
         <v>4.268598721718917</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.667566358032175</v>
+        <v>1.667566358032161</v>
       </c>
       <c r="I20">
-        <v>0.4897327782280101</v>
+        <v>0.4897327782279817</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.623831824179319</v>
+        <v>6.62383182417949</v>
       </c>
       <c r="C21">
-        <v>3.000264366075726</v>
+        <v>3.000264366075669</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9104905024855867</v>
+        <v>0.9104905024856151</v>
       </c>
       <c r="F21">
-        <v>4.925934266288266</v>
+        <v>4.925934266288294</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>1.910366141436967</v>
       </c>
       <c r="I21">
-        <v>0.5696115753874125</v>
+        <v>0.5696115753874054</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.20222984179992</v>
+        <v>7.202229841800033</v>
       </c>
       <c r="C22">
         <v>3.27349902213524</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.9882664641729946</v>
+        <v>0.9882664641730088</v>
       </c>
       <c r="F22">
         <v>5.376642387490477</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.081445440593768</v>
+        <v>2.081445440593782</v>
       </c>
       <c r="I22">
-        <v>0.6260834978169996</v>
+        <v>0.6260834978170209</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>6.891303549677275</v>
       </c>
       <c r="C23">
-        <v>3.126401375246928</v>
+        <v>3.126401375246758</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.9464684037005213</v>
+        <v>0.9464684037005782</v>
       </c>
       <c r="F23">
         <v>5.133907333142446</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.988858239582271</v>
+        <v>1.988858239582214</v>
       </c>
       <c r="I23">
-        <v>0.5954989242090534</v>
+        <v>0.5954989242090321</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.757832139597554</v>
+        <v>5.757832139597269</v>
       </c>
       <c r="C24">
-        <v>2.594401675220752</v>
+        <v>2.594401675220467</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.793851684931866</v>
+        <v>0.7938516849318944</v>
       </c>
       <c r="F24">
-        <v>4.258159437676312</v>
+        <v>4.258159437676284</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.663777659639109</v>
+        <v>1.663777659639123</v>
       </c>
       <c r="I24">
-        <v>0.4884882712691194</v>
+        <v>0.4884882712691052</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.603752009497157</v>
+        <v>4.603752009497043</v>
       </c>
       <c r="C25">
-        <v>2.059502778596197</v>
+        <v>2.059502778596141</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6379777844583856</v>
+        <v>0.637977784458343</v>
       </c>
       <c r="F25">
         <v>3.382731260772459</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.354162818363079</v>
+        <v>1.354162818363065</v>
       </c>
       <c r="I25">
-        <v>0.3868849973218573</v>
+        <v>0.3868849973219</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.792960657984111</v>
+        <v>3.792960657984224</v>
       </c>
       <c r="C2">
-        <v>1.687800453365696</v>
+        <v>1.687800453365924</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5280916914694842</v>
+        <v>0.5280916914694984</v>
       </c>
       <c r="F2">
-        <v>2.778958956602537</v>
+        <v>2.778958956602509</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.150930744522171</v>
+        <v>1.150930744522185</v>
       </c>
       <c r="I2">
-        <v>0.3201444056126448</v>
+        <v>0.3201444056126093</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.260107930289507</v>
+        <v>3.260107930289564</v>
       </c>
       <c r="C3">
-        <v>1.445377246506041</v>
+        <v>1.445377246505586</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4556582095603758</v>
+        <v>0.4556582095603829</v>
       </c>
       <c r="F3">
-        <v>2.38797913006573</v>
+        <v>2.387979130065702</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>1.024570975090668</v>
       </c>
       <c r="I3">
-        <v>0.2785108882884231</v>
+        <v>0.278510888288416</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.939072405746515</v>
+        <v>2.939072405746231</v>
       </c>
       <c r="C4">
-        <v>1.300045340005965</v>
+        <v>1.300045340005852</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4119180828396054</v>
+        <v>0.4119180828396125</v>
       </c>
       <c r="F4">
-        <v>2.154924904410294</v>
+        <v>2.154924904410279</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9514976383523077</v>
+        <v>0.9514976383523219</v>
       </c>
       <c r="I4">
-        <v>0.2543404040007147</v>
+        <v>0.2543404040006862</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>2.809525032446459</v>
       </c>
       <c r="C5">
-        <v>1.241556060797507</v>
+        <v>1.241556060797279</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3942434322049451</v>
+        <v>0.3942434322049166</v>
       </c>
       <c r="F5">
         <v>2.061459513000997</v>
@@ -567,16 +567,16 @@
         <v>2.788083732529685</v>
       </c>
       <c r="C6">
-        <v>1.231884288779781</v>
+        <v>1.231884288779497</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3913166770388656</v>
+        <v>0.3913166770388727</v>
       </c>
       <c r="F6">
-        <v>2.046023659843144</v>
+        <v>2.046023659843172</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0.9179874960199257</v>
       </c>
       <c r="I6">
-        <v>0.24322314696348</v>
+        <v>0.2432231469634587</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.937320442508678</v>
+        <v>2.937320442508565</v>
       </c>
       <c r="C7">
-        <v>1.299253743547581</v>
+        <v>1.299253743547467</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4116791528141803</v>
+        <v>0.4116791528141945</v>
       </c>
       <c r="F7">
-        <v>2.153658617554854</v>
+        <v>2.153658617554839</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.9511055787404104</v>
+        <v>0.9511055787404246</v>
       </c>
       <c r="I7">
-        <v>0.2542104699218157</v>
+        <v>0.2542104699218015</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,25 +643,25 @@
         <v>3.60778833725459</v>
       </c>
       <c r="C8">
-        <v>1.60338696180213</v>
+        <v>1.603386961802357</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5029418592895354</v>
+        <v>0.5029418592895567</v>
       </c>
       <c r="F8">
-        <v>2.642530635235886</v>
+        <v>2.642530635235858</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.106334091518718</v>
+        <v>1.10633409151869</v>
       </c>
       <c r="I8">
-        <v>0.3054685550688347</v>
+        <v>0.3054685550688419</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>4.985289794669825</v>
       </c>
       <c r="C9">
-        <v>2.235585653848091</v>
+        <v>2.235585653848545</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6895721268861053</v>
+        <v>0.6895721268860839</v>
       </c>
       <c r="F9">
-        <v>3.670186883564412</v>
+        <v>3.67018688356444</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>1.453999221881588</v>
       </c>
       <c r="I9">
-        <v>0.4196365619108846</v>
+        <v>0.4196365619108775</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>6.05897079205829</v>
       </c>
       <c r="C10">
-        <v>2.735096923097728</v>
+        <v>2.735096923098183</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.834439231616301</v>
+        <v>0.8344392316163152</v>
       </c>
       <c r="F10">
         <v>4.489371599212291</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.748193006721252</v>
+        <v>1.748193006721237</v>
       </c>
       <c r="I10">
-        <v>0.5162292953177996</v>
+        <v>0.5162292953178564</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.567442562605208</v>
+        <v>6.567442562605152</v>
       </c>
       <c r="C11">
-        <v>2.973719083577521</v>
+        <v>2.973719083577123</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.763571922983544</v>
+        <v>6.763571922983431</v>
       </c>
       <c r="C12">
-        <v>3.066118094704393</v>
+        <v>3.066118094704336</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9292896498678402</v>
+        <v>0.9292896498678687</v>
       </c>
       <c r="F12">
         <v>5.034491354838934</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1.951239818415033</v>
+        <v>1.95123981841499</v>
       </c>
       <c r="I12">
-        <v>0.58308757116707</v>
+        <v>0.5830875711670345</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.72115984834403</v>
+        <v>6.721159848344087</v>
       </c>
       <c r="C13">
-        <v>3.046120337920058</v>
+        <v>3.046120337920001</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.923584580080842</v>
+        <v>0.9235845800808846</v>
       </c>
       <c r="F13">
         <v>5.001520733107412</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1.938803201193366</v>
+        <v>1.93880320119338</v>
       </c>
       <c r="I13">
-        <v>0.5789862250689382</v>
+        <v>0.5789862250689808</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.583501900407953</v>
+        <v>6.583501900407725</v>
       </c>
       <c r="C14">
-        <v>2.981277351746201</v>
+        <v>2.981277351745916</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9050638767616306</v>
+        <v>0.9050638767615879</v>
       </c>
       <c r="F14">
         <v>4.894644272520821</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1.898624724964847</v>
+        <v>1.898624724964861</v>
       </c>
       <c r="I14">
-        <v>0.5657421807226442</v>
+        <v>0.5657421807226299</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>6.499672271316797</v>
       </c>
       <c r="C15">
-        <v>2.941837935843409</v>
+        <v>2.941837935843694</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.8937825532367469</v>
+        <v>0.8937825532367185</v>
       </c>
       <c r="F15">
         <v>4.82966329425372</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1.874298304470329</v>
+        <v>1.874298304470315</v>
       </c>
       <c r="I15">
-        <v>0.5577277652788766</v>
+        <v>0.5577277652788553</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.026200838358534</v>
+        <v>6.02620083835825</v>
       </c>
       <c r="C16">
-        <v>2.719763873834324</v>
+        <v>2.719763873834438</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.8300240098623846</v>
+        <v>0.8300240098623988</v>
       </c>
       <c r="F16">
         <v>4.464158386266206</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.738937058617779</v>
+        <v>1.738937058617765</v>
       </c>
       <c r="I16">
-        <v>0.5131862071559183</v>
+        <v>0.5131862071559041</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.741329199461291</v>
+        <v>5.741329199461404</v>
       </c>
       <c r="C17">
-        <v>2.586704765157776</v>
+        <v>2.586704765158004</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.7916264870873562</v>
+        <v>0.7916264870873988</v>
       </c>
       <c r="F17">
-        <v>4.245520335101702</v>
+        <v>4.245520335101673</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.659193491506286</v>
+        <v>1.659193491506315</v>
       </c>
       <c r="I17">
-        <v>0.4869825332103304</v>
+        <v>0.4869825332103659</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>5.579316219775194</v>
       </c>
       <c r="C18">
-        <v>2.511216593325173</v>
+        <v>2.511216593324946</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.7697759191786702</v>
+        <v>0.7697759191786133</v>
       </c>
       <c r="F18">
-        <v>4.121617934324263</v>
+        <v>4.121617934324291</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.614424108718353</v>
+        <v>1.614424108718339</v>
       </c>
       <c r="I18">
-        <v>0.4722808209228972</v>
+        <v>0.4722808209228546</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.524758053649464</v>
+        <v>5.524758053649407</v>
       </c>
       <c r="C19">
-        <v>2.485826065367519</v>
+        <v>2.485826065367235</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.7624154891833541</v>
+        <v>0.7624154891833399</v>
       </c>
       <c r="F19">
         <v>4.079967161689012</v>
@@ -1079,7 +1079,7 @@
         <v>1.599444324961738</v>
       </c>
       <c r="I19">
-        <v>0.467362934790188</v>
+        <v>0.4673629347902022</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.771459483085948</v>
+        <v>5.771459483085891</v>
       </c>
       <c r="C20">
-        <v>2.600758469816469</v>
+        <v>2.600758469816356</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.7956890732549056</v>
+        <v>0.795689073254934</v>
       </c>
       <c r="F20">
         <v>4.268598721718917</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.667566358032161</v>
+        <v>1.667566358032175</v>
       </c>
       <c r="I20">
-        <v>0.4897327782279817</v>
+        <v>0.4897327782280101</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.62383182417949</v>
+        <v>6.623831824179319</v>
       </c>
       <c r="C21">
-        <v>3.000264366075669</v>
+        <v>3.000264366075726</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9104905024856151</v>
+        <v>0.9104905024855867</v>
       </c>
       <c r="F21">
-        <v>4.925934266288294</v>
+        <v>4.925934266288266</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>1.910366141436967</v>
       </c>
       <c r="I21">
-        <v>0.5696115753874054</v>
+        <v>0.5696115753874125</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.202229841800033</v>
+        <v>7.20222984179992</v>
       </c>
       <c r="C22">
         <v>3.27349902213524</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.9882664641730088</v>
+        <v>0.9882664641729946</v>
       </c>
       <c r="F22">
         <v>5.376642387490477</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.081445440593782</v>
+        <v>2.081445440593768</v>
       </c>
       <c r="I22">
-        <v>0.6260834978170209</v>
+        <v>0.6260834978169996</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>6.891303549677275</v>
       </c>
       <c r="C23">
-        <v>3.126401375246758</v>
+        <v>3.126401375246928</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.9464684037005782</v>
+        <v>0.9464684037005213</v>
       </c>
       <c r="F23">
         <v>5.133907333142446</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.988858239582214</v>
+        <v>1.988858239582271</v>
       </c>
       <c r="I23">
-        <v>0.5954989242090321</v>
+        <v>0.5954989242090534</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.757832139597269</v>
+        <v>5.757832139597554</v>
       </c>
       <c r="C24">
-        <v>2.594401675220467</v>
+        <v>2.594401675220752</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.7938516849318944</v>
+        <v>0.793851684931866</v>
       </c>
       <c r="F24">
-        <v>4.258159437676284</v>
+        <v>4.258159437676312</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.663777659639123</v>
+        <v>1.663777659639109</v>
       </c>
       <c r="I24">
-        <v>0.4884882712691052</v>
+        <v>0.4884882712691194</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.603752009497043</v>
+        <v>4.603752009497157</v>
       </c>
       <c r="C25">
-        <v>2.059502778596141</v>
+        <v>2.059502778596197</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.637977784458343</v>
+        <v>0.6379777844583856</v>
       </c>
       <c r="F25">
         <v>3.382731260772459</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.354162818363065</v>
+        <v>1.354162818363079</v>
       </c>
       <c r="I25">
-        <v>0.3868849973219</v>
+        <v>0.3868849973218573</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.792960657984224</v>
+        <v>3.754981267491473</v>
       </c>
       <c r="C2">
-        <v>1.687800453365924</v>
+        <v>1.664815433405238</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5280916914694984</v>
+        <v>0.5310934470059152</v>
       </c>
       <c r="F2">
-        <v>2.778958956602509</v>
+        <v>2.769432135793551</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000755279330619273</v>
       </c>
       <c r="H2">
-        <v>1.150930744522185</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3201444056126093</v>
+        <v>1.161061571791336</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3202078236965704</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.260107930289564</v>
+        <v>3.227455591532305</v>
       </c>
       <c r="C3">
-        <v>1.445377246505586</v>
+        <v>1.4255364666069</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4556582095603829</v>
+        <v>0.4585549313697399</v>
       </c>
       <c r="F3">
-        <v>2.387979130065702</v>
+        <v>2.381046389892674</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007662888626409892</v>
       </c>
       <c r="H3">
-        <v>1.024570975090668</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.278510888288416</v>
+        <v>1.037409296113921</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2795218781611055</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.939072405746231</v>
+        <v>2.909654126474322</v>
       </c>
       <c r="C4">
-        <v>1.300045340005852</v>
+        <v>1.282110570373106</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4119180828396125</v>
+        <v>0.4147412322941619</v>
       </c>
       <c r="F4">
-        <v>2.154924904410279</v>
+        <v>2.149536009222274</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007731650502567403</v>
       </c>
       <c r="H4">
-        <v>0.9514976383523219</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2543404040006862</v>
+        <v>0.9659720088138641</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2559193890727016</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.809525032446459</v>
+        <v>2.781419832690801</v>
       </c>
       <c r="C5">
-        <v>1.241556060797279</v>
+        <v>1.22439457902135</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3942434322049166</v>
+        <v>0.3970345079843653</v>
       </c>
       <c r="F5">
-        <v>2.061459513000997</v>
+        <v>2.056690622410727</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007760001021594116</v>
       </c>
       <c r="H5">
-        <v>0.922711403851892</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2447918200338677</v>
+        <v>0.9378484242959928</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.246599832673823</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.788083732529685</v>
+        <v>2.760196393463673</v>
       </c>
       <c r="C6">
-        <v>1.231884288779497</v>
+        <v>1.214851076330262</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3913166770388727</v>
+        <v>0.3941023053890049</v>
       </c>
       <c r="F6">
-        <v>2.046023659843172</v>
+        <v>2.041357252887266</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007764729511967076</v>
       </c>
       <c r="H6">
-        <v>0.9179874960199257</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2432231469634587</v>
+        <v>0.9332343722386653</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2450690697411488</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.937320442508565</v>
+        <v>2.907919886083221</v>
       </c>
       <c r="C7">
-        <v>1.299253743547467</v>
+        <v>1.281329413293065</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4116791528141945</v>
+        <v>0.4145018779636018</v>
       </c>
       <c r="F7">
-        <v>2.153658617554839</v>
+        <v>2.148278117076629</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007732031467137226</v>
       </c>
       <c r="H7">
-        <v>0.9511055787404246</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2542104699218015</v>
+        <v>0.9655888992189574</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2557925523426263</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.60778833725459</v>
+        <v>3.571656239985657</v>
       </c>
       <c r="C8">
-        <v>1.603386961802357</v>
+        <v>1.581492973764</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5029418592895567</v>
+        <v>0.5059094144063891</v>
       </c>
       <c r="F8">
-        <v>2.642530635235858</v>
+        <v>2.633910494103503</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007590536507315736</v>
       </c>
       <c r="H8">
-        <v>1.10633409151869</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3054685550688419</v>
+        <v>1.117405614789831</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3058622441517755</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.985289794669825</v>
+        <v>4.935419602308571</v>
       </c>
       <c r="C9">
-        <v>2.235585653848545</v>
+        <v>2.205559563583506</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6895721268860839</v>
+        <v>0.6927398543824594</v>
       </c>
       <c r="F9">
-        <v>3.67018688356444</v>
+        <v>3.654647907895509</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007320356016750547</v>
       </c>
       <c r="H9">
-        <v>1.453999221881588</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4196365619108775</v>
+        <v>1.458028986555334</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4175323764110388</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.05897079205829</v>
+        <v>5.998238403477387</v>
       </c>
       <c r="C10">
-        <v>2.735096923098183</v>
+        <v>2.698610557285349</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.8344392316163152</v>
+        <v>0.8376793314822493</v>
       </c>
       <c r="F10">
-        <v>4.489371599212291</v>
+        <v>4.468083229821303</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.000712308758602343</v>
       </c>
       <c r="H10">
-        <v>1.748193006721237</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5162292953178564</v>
+        <v>1.746582179155681</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5120839406746001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.567442562605152</v>
+        <v>6.501463129605213</v>
       </c>
       <c r="C11">
-        <v>2.973719083577123</v>
+        <v>2.934102388155566</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9029028645017547</v>
+        <v>0.9061512996807295</v>
       </c>
       <c r="F11">
-        <v>4.88218968580432</v>
+        <v>4.858039174325114</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007032707173985538</v>
       </c>
       <c r="H11">
-        <v>1.893956189058216</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.564203870027427</v>
+        <v>1.889599112934704</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5590524328415967</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.763571922983431</v>
+        <v>6.695545573752668</v>
       </c>
       <c r="C12">
-        <v>3.066118094704336</v>
+        <v>3.025278550755331</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9292896498678687</v>
+        <v>0.932536648748183</v>
       </c>
       <c r="F12">
-        <v>5.034491354838934</v>
+        <v>5.009209652412238</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006998294966646977</v>
       </c>
       <c r="H12">
-        <v>1.95123981841499</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5830875711670345</v>
+        <v>1.945807823087009</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5775402001186052</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.721159848344087</v>
+        <v>6.653577314100744</v>
       </c>
       <c r="C13">
-        <v>3.046120337920001</v>
+        <v>3.005546013003141</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9235845800808846</v>
+        <v>0.9268321137441546</v>
       </c>
       <c r="F13">
-        <v>5.001520733107412</v>
+        <v>4.976484988636855</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007005716304024132</v>
       </c>
       <c r="H13">
-        <v>1.93880320119338</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5789862250689808</v>
+        <v>1.933604437788048</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5735248636927111</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.583501900407725</v>
+        <v>6.517355377348565</v>
       </c>
       <c r="C14">
-        <v>2.981277351745916</v>
+        <v>2.941560870166768</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9050638767615879</v>
+        <v>0.9083122933031405</v>
       </c>
       <c r="F14">
-        <v>4.894644272520821</v>
+        <v>4.870401727706906</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007029880426996395</v>
       </c>
       <c r="H14">
-        <v>1.898624724964861</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5657421807226299</v>
+        <v>1.894179976972353</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5605584954285234</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.499672271316797</v>
+        <v>6.434396979399082</v>
       </c>
       <c r="C15">
-        <v>2.941837935843694</v>
+        <v>2.902641684507273</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.8937825532367185</v>
+        <v>0.8970308743615476</v>
       </c>
       <c r="F15">
-        <v>4.82966329425372</v>
+        <v>4.805900024542751</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007044654123585134</v>
       </c>
       <c r="H15">
-        <v>1.874298304470315</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5577277652788553</v>
+        <v>1.870310544079786</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.552712084886565</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.02620083835825</v>
+        <v>5.965803939520072</v>
       </c>
       <c r="C16">
-        <v>2.719763873834438</v>
+        <v>2.683477445106575</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.8300240098623988</v>
+        <v>0.8332629884330771</v>
       </c>
       <c r="F16">
-        <v>4.464158386266206</v>
+        <v>4.443051163552639</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007128973581287202</v>
       </c>
       <c r="H16">
-        <v>1.738937058617765</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5131862071559041</v>
+        <v>1.737501361072049</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5091047420668886</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.741329199461404</v>
+        <v>5.683836718435543</v>
       </c>
       <c r="C17">
-        <v>2.586704765158004</v>
+        <v>2.552148165859592</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.7916264870873988</v>
+        <v>0.7948527976967199</v>
       </c>
       <c r="F17">
-        <v>4.245520335101673</v>
+        <v>4.225971920984392</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007180474942802488</v>
       </c>
       <c r="H17">
-        <v>1.659193491506315</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4869825332103659</v>
+        <v>1.65927155344653</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4834519462179969</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.579316219775194</v>
+        <v>5.523466686231757</v>
       </c>
       <c r="C18">
-        <v>2.511216593324946</v>
+        <v>2.477637653636634</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.7697759191786133</v>
+        <v>0.772992710551776</v>
       </c>
       <c r="F18">
-        <v>4.121617934324291</v>
+        <v>4.10294376669259</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.000721004342541938</v>
       </c>
       <c r="H18">
-        <v>1.614424108718339</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4722808209228546</v>
+        <v>1.615356540460922</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.469060067423662</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.524758053649407</v>
+        <v>5.469460469463229</v>
       </c>
       <c r="C19">
-        <v>2.485826065367235</v>
+        <v>2.452575431905075</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.7624154891833399</v>
+        <v>0.7656287003078859</v>
       </c>
       <c r="F19">
-        <v>4.079967161689012</v>
+        <v>4.06158546922623</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007220048152094103</v>
       </c>
       <c r="H19">
-        <v>1.599444324961738</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4673629347902022</v>
+        <v>1.600663466720434</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4642459788604612</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.771459483085891</v>
+        <v>5.713660779367842</v>
       </c>
       <c r="C20">
-        <v>2.600758469816356</v>
+        <v>2.566019579777276</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.795689073254934</v>
+        <v>0.7989169699592225</v>
       </c>
       <c r="F20">
-        <v>4.268598721718917</v>
+        <v>4.248886756764307</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007174998720599869</v>
       </c>
       <c r="H20">
-        <v>1.667566358032175</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4897327782280101</v>
+        <v>1.667485022588224</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4861442995933203</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.623831824179319</v>
+        <v>6.55726528921798</v>
       </c>
       <c r="C21">
-        <v>3.000264366075726</v>
+        <v>2.960297025818477</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9104905024855867</v>
+        <v>0.9137387947652655</v>
       </c>
       <c r="F21">
-        <v>4.925934266288266</v>
+        <v>4.901460137947367</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007022788775008043</v>
       </c>
       <c r="H21">
-        <v>1.910366141436967</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5696115753874125</v>
+        <v>1.905700955552106</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5643467718062851</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.20222984179992</v>
+        <v>7.129572138696631</v>
       </c>
       <c r="C22">
-        <v>3.27349902213524</v>
+        <v>3.229889229716889</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.9882664641729946</v>
+        <v>0.9915005017971055</v>
       </c>
       <c r="F22">
-        <v>5.376642387490477</v>
+        <v>5.348771384576395</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006922160159564298</v>
       </c>
       <c r="H22">
-        <v>2.081445440593768</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6260834978169996</v>
+        <v>2.073574232858334</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6196332667926541</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.891303549677275</v>
+        <v>6.821936488949007</v>
       </c>
       <c r="C23">
-        <v>3.126401375246928</v>
+        <v>3.084760370604613</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.9464684037005213</v>
+        <v>0.949713035906214</v>
       </c>
       <c r="F23">
-        <v>5.133907333142446</v>
+        <v>5.107880305826399</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006976009810593098</v>
       </c>
       <c r="H23">
-        <v>1.988858239582271</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5954989242090534</v>
+        <v>1.98272112588667</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.589691183838724</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.757832139597554</v>
+        <v>5.700171961622971</v>
       </c>
       <c r="C24">
-        <v>2.594401675220752</v>
+        <v>2.559745250579169</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.793851684931866</v>
+        <v>0.7970788714541328</v>
       </c>
       <c r="F24">
-        <v>4.258159437676312</v>
+        <v>4.238521481528466</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007177474639936098</v>
       </c>
       <c r="H24">
-        <v>1.663777659639109</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4884882712691194</v>
+        <v>1.663768436666288</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4849259865856297</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.603752009497157</v>
+        <v>4.55769516759716</v>
       </c>
       <c r="C25">
-        <v>2.059502778596197</v>
+        <v>2.031738238157402</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6379777844583856</v>
+        <v>0.6411023145531303</v>
       </c>
       <c r="F25">
-        <v>3.382731260772459</v>
+        <v>3.369153069004227</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007392965697961472</v>
       </c>
       <c r="H25">
-        <v>1.354162818363079</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3868849973218573</v>
+        <v>1.360157779466917</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3854837185497857</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.754981267491473</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.664815433405238</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5310934470059152</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.769432135793551</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.000755279330619273</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.161061571791336</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3202078236965704</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +456,43 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.227455591532305</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.4255364666069</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4585549313697399</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.381046389892674</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.0007662888626409892</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.037409296113921</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2795218781611055</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,37 +503,43 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.909654126474322</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.282110570373106</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4147412322941619</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2.149536009222274</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007731650502567403</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9659720088138641</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2559193890727016</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -532,37 +550,43 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.781419832690801</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.22439457902135</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3970345079843653</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.056690622410727</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.0007760001021594116</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9378484242959928</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.246599832673823</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -573,37 +597,43 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.760196393463673</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.214851076330262</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3941023053890049</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2.041357252887266</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007764729511967076</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9332343722386653</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2450690697411488</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -614,37 +644,43 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.907919886083221</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.281329413293065</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4145018779636018</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2.148278117076629</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0007732031467137226</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9655888992189574</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2557925523426263</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -655,37 +691,43 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.571656239985657</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.581492973764</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5059094144063891</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2.633910494103503</v>
+        <v>1.390742831773494</v>
       </c>
       <c r="G8">
-        <v>0.0007590536507315736</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.117405614789831</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3058622441517755</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -696,37 +738,43 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.935419602308571</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.205559563583506</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6927398543824594</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3.654647907895509</v>
+        <v>1.895061171842784</v>
       </c>
       <c r="G9">
-        <v>0.0007320356016750547</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.458028986555334</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4175323764110388</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -737,37 +785,43 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.998238403477387</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.698610557285349</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.8376793314822493</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>4.468083229821303</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.000712308758602343</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.746582179155681</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5120839406746001</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -778,37 +832,43 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.501463129605213</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2.934102388155566</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9061512996807295</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>4.858039174325114</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007032707173985538</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.889599112934704</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5590524328415967</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -819,37 +879,43 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.695545573752668</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>3.025278550755331</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.932536648748183</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5.009209652412238</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0006998294966646977</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.945807823087009</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5775402001186052</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -860,37 +926,43 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.653577314100744</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>3.005546013003141</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9268321137441546</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>4.976484988636855</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0007005716304024132</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.933604437788048</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5735248636927111</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -901,37 +973,43 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.517355377348565</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2.941560870166768</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9083122933031405</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>4.870401727706906</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007029880426996395</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.894179976972353</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5605584954285234</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -942,37 +1020,43 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.434396979399082</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2.902641684507273</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.8970308743615476</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>4.805900024542751</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007044654123585134</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.870310544079786</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.552712084886565</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -983,37 +1067,43 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.965803939520072</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2.683477445106575</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.8332629884330771</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>4.443051163552639</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007128973581287202</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.737501361072049</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5091047420668886</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1024,37 +1114,43 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.683836718435543</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2.552148165859592</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.7948527976967199</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>4.225971920984392</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007180474942802488</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.65927155344653</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4834519462179969</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1065,37 +1161,43 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.523466686231757</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>2.477637653636634</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.772992710551776</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>4.10294376669259</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.000721004342541938</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.615356540460922</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.469060067423662</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1106,37 +1208,43 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.469460469463229</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>2.452575431905075</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.7656287003078859</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>4.06158546922623</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007220048152094103</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.600663466720434</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4642459788604612</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1147,37 +1255,43 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.713660779367842</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>2.566019579777276</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.7989169699592225</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>4.248886756764307</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007174998720599869</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.667485022588224</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4861442995933203</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1188,37 +1302,43 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.55726528921798</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.960297025818477</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9137387947652655</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>4.901460137947367</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007022788775008043</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.905700955552106</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5643467718062851</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1229,37 +1349,43 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.129572138696631</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>3.229889229716889</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.9915005017971055</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>5.348771384576395</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0006922160159564298</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.073574232858334</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6196332667926541</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1270,37 +1396,43 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.821936488949007</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>3.084760370604613</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.949713035906214</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>5.107880305826399</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0006976009810593098</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.98272112588667</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.589691183838724</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1311,37 +1443,43 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.700171961622971</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>2.559745250579169</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.7970788714541328</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>4.238521481528466</v>
+        <v>2.170038921572853</v>
       </c>
       <c r="G24">
-        <v>0.0007177474639936098</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.663768436666288</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4849259865856297</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1352,37 +1490,43 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.55769516759716</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>2.031738238157402</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6411023145531303</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>3.369153069004227</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.0007392965697961472</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.360157779466917</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3854837185497857</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.16298927699188</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.08917598498567259</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.06761404372681667</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.476135440955716</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.9318686104317493</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6693783472626365</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.07844622459248995</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9088745464953547</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2104499917410578</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2680672473826284</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.379310304680352</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.021518770480753</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0852113922126847</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.06473676302128339</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.413298106634343</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.9067343126735921</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6652678564860821</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0780904230828714</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7894354032942772</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1908367928322434</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2376266353628012</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.431692996005275</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.9355238483222479</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.08277655088283353</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.06302490268045879</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.376787377297987</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.8928906924725339</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.6636661141606623</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07787414377783186</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7166462522681911</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1789640285279006</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2191451344897715</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.46535620759084</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.9006771601116839</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0817834306105496</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0623406402843294</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.362405167142242</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.8876294036217445</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6632365544811307</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07778663570191746</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6871036110158428</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1741658027932829</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.211661904494175</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.479442772600287</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.8949021839077886</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.08161844796096318</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.06222781181274328</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.360046283280923</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.8867781786408528</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.663178459238452</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07777214516956654</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6822047898981936</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1733714026102717</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2104221010164302</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.481803850290298</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.9350531237998325</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.0827631619385869</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.06301562105961622</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.376591436392232</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.8928182228319912</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6636594285519806</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07787296097186669</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7162473689808735</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1788991593702605</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2190440238727689</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.465544702843907</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.11401665245512</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.08780863584522081</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.06661030691590852</v>
       </c>
       <c r="F8">
-        <v>1.390742831773494</v>
+        <v>1.45402385346874</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.9228604739587212</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.667764270349565</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07832313903198518</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8675672161611772</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2036504519600371</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2575251430059637</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.397055172435699</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.472900677405363</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.09773575049292305</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.07411597325442187</v>
       </c>
       <c r="F9">
-        <v>1.895061171842784</v>
+        <v>1.623496204628125</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.9953163481117855</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.683549340395146</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.07921960326680377</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.169523306128099</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2536655638037075</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3348634225690219</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.275060982490793</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.742986422133839</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1051064580181347</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.07994120605703969</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>1.760526576646058</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.058199764120033</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7004866011738926</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.07988123105226208</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.395876571273419</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2915087635222022</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3931552269260692</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.193545080480085</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.867627164796204</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.108490468661067</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.08266649929384329</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>1.826008337031197</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.089237828593568</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.7095016891993424</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0801815929291827</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.500148632328688</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3090097419939326</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.4200717455366814</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.158369401631198</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.915114697159567</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1097776617000861</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.08371001521239663</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>1.851295033219159</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.101371171536897</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.7131174998207115</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.08029512482836054</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.53984961801973</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.315682156194967</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.4303287194776999</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.145336914213495</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.904874006785548</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1095001646046114</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.08348475247402476</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>1.845826657550703</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.098740636757867</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7123295587561955</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.08027068499763956</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.531289248330069</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3142430554766946</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.428116723254945</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.148130665396138</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.871528005435408</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.1085962439730395</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.08275211536842875</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>1.828078638214734</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.090228250890192</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7097950342298134</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.08019093817047818</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.503410370140443</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3095577558690366</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.4209142636887933</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.157291361430673</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.851141255317685</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1080433542576316</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.08230487313362644</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>1.817272469586015</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.085064579269385</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7082692916825124</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.08014206003905855</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.486362677811059</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3066938830371839</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.4165111318656045</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.162940453394882</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.734879401789073</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.1048860360579127</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.07976467441590529</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>1.756313660362295</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.056222818966205</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6999249461046304</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.07986157925835258</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.389090712394335</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2903711270820253</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3914047780009255</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.195883396368217</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.664034574034588</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1029579451717453</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.07822610922096374</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>1.719749166829303</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.03917298254278</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6951508759100733</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.07968927318905372</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.329770480079532</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2804336714321494</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3761098254772079</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.216590456735737</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.623451663042488</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1018517963572734</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.07734821824053739</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>1.699011924816205</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.029593345736259</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6925274090953764</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.0795901170535771</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.295771871108855</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.274744561680734</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3673497155086167</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.228679162386783</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.609738382956124</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.101477723825127</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.07705217082664007</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>1.692039986371086</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.026387947718803</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6916597829942503</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.07955653936452833</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.28428045767015</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2728227854439069</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3643898715011886</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.23280245829708</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.671558801098769</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.1031628911352556</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.07838915765979593</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>1.723610859295775</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.040964264289741</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6956463155217705</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0797076215033421</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.336072519397248</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2814887437135951</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3777341071984281</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.214367579859946</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.881314419141631</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.1088615807452129</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.08296699079576797</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>1.833278043061327</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.092717982214467</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7105338898801961</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.08021436841405816</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.511592991083234</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.310932682110348</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4230279990555346</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.154592718469715</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2.020102446496935</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.1126201552091075</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.08602628321448691</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>1.907828650907675</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.128772147142627</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7214482478331519</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.08054427786250784</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.627576082891125</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3304414061773713</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4530083743282702</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.117210926866754</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.945861396139321</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.110610553150714</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.08438707936239709</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>1.867763115877523</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.109314701350428</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7155098955252868</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.08036835826931465</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.565547614800522</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3200035279277955</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4369702734882281</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.137003355999127</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.668156643508894</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.1030702278831441</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.07831542279535242</v>
       </c>
       <c r="F24">
-        <v>2.170038921572853</v>
+        <v>1.72186410582124</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.040153734898325</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6954219507461232</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.07969932651760914</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.333223041273186</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2810116708784562</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.376999666652118</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.21537197058057</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.374807354179183</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.09504107187843402</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.07203338618467825</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.575586527226079</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.9741273069415257</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6783891914216298</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.07897615056921126</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.087146449414632</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2399574561129469</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3137080059478663</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.30668551829374</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.16298927699188</v>
+        <v>0.9598733014176446</v>
       </c>
       <c r="C2">
-        <v>0.08917598498567259</v>
+        <v>0.1248264984811058</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06761404372681667</v>
+        <v>0.1687470901427996</v>
       </c>
       <c r="F2">
-        <v>1.476135440955716</v>
+        <v>2.697307377516523</v>
       </c>
       <c r="G2">
-        <v>0.9318686104317493</v>
+        <v>1.617195584468732</v>
       </c>
       <c r="H2">
-        <v>0.6693783472626365</v>
+        <v>1.457778898511492</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07844622459248995</v>
+        <v>0.1139369751323933</v>
       </c>
       <c r="K2">
-        <v>0.9088745464953547</v>
+        <v>0.4807606763498313</v>
       </c>
       <c r="L2">
-        <v>0.2104499917410578</v>
+        <v>0.3385925687311584</v>
       </c>
       <c r="M2">
-        <v>0.2680672473826284</v>
+        <v>0.2846770866607642</v>
       </c>
       <c r="N2">
-        <v>1.379310304680352</v>
+        <v>2.80662303800154</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.021518770480753</v>
+        <v>0.9260911653678932</v>
       </c>
       <c r="C3">
-        <v>0.0852113922126847</v>
+        <v>0.1233853527657658</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06473676302128339</v>
+        <v>0.1687264768431209</v>
       </c>
       <c r="F3">
-        <v>1.413298106634343</v>
+        <v>2.695877125465529</v>
       </c>
       <c r="G3">
-        <v>0.9067343126735921</v>
+        <v>1.619758411478983</v>
       </c>
       <c r="H3">
-        <v>0.6652678564860821</v>
+        <v>1.463821603607244</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0780904230828714</v>
+        <v>0.1136226897306134</v>
       </c>
       <c r="K3">
-        <v>0.7894354032942772</v>
+        <v>0.4493613367476428</v>
       </c>
       <c r="L3">
-        <v>0.1908367928322434</v>
+        <v>0.3351386875223099</v>
       </c>
       <c r="M3">
-        <v>0.2376266353628012</v>
+        <v>0.2779653451877202</v>
       </c>
       <c r="N3">
-        <v>1.431692996005275</v>
+        <v>2.828953703234568</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9355238483222479</v>
+        <v>0.9058167965146708</v>
       </c>
       <c r="C4">
-        <v>0.08277655088283353</v>
+        <v>0.1224825949474422</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06302490268045879</v>
+        <v>0.1687607500397483</v>
       </c>
       <c r="F4">
-        <v>1.376787377297987</v>
+        <v>2.69614891956013</v>
       </c>
       <c r="G4">
-        <v>0.8928906924725339</v>
+        <v>1.622091580609734</v>
       </c>
       <c r="H4">
-        <v>0.6636661141606623</v>
+        <v>1.468054073360221</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07787414377783186</v>
+        <v>0.1134287590252221</v>
       </c>
       <c r="K4">
-        <v>0.7166462522681911</v>
+        <v>0.4303013611670679</v>
       </c>
       <c r="L4">
-        <v>0.1789640285279006</v>
+        <v>0.3331482675718291</v>
       </c>
       <c r="M4">
-        <v>0.2191451344897715</v>
+        <v>0.2739750745281988</v>
       </c>
       <c r="N4">
-        <v>1.46535620759084</v>
+        <v>2.843419383354188</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9006771601116839</v>
+        <v>0.897672991061512</v>
       </c>
       <c r="C5">
-        <v>0.0817834306105496</v>
+        <v>0.122110202683082</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0623406402843294</v>
+        <v>0.1687865566088682</v>
       </c>
       <c r="F5">
-        <v>1.362405167142242</v>
+        <v>2.696549170415665</v>
       </c>
       <c r="G5">
-        <v>0.8876294036217445</v>
+        <v>1.623233378348829</v>
       </c>
       <c r="H5">
-        <v>0.6632365544811307</v>
+        <v>1.469910272047727</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07778663570191746</v>
+        <v>0.1133494983291854</v>
       </c>
       <c r="K5">
-        <v>0.6871036110158428</v>
+        <v>0.4225896970491334</v>
       </c>
       <c r="L5">
-        <v>0.1741658027932829</v>
+        <v>0.3323700393624307</v>
       </c>
       <c r="M5">
-        <v>0.211661904494175</v>
+        <v>0.2723820196153568</v>
       </c>
       <c r="N5">
-        <v>1.479442772600287</v>
+        <v>2.849504035404436</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8949021839077886</v>
+        <v>0.8963278694484984</v>
       </c>
       <c r="C6">
-        <v>0.08161844796096318</v>
+        <v>0.1220480943957156</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06222781181274328</v>
+        <v>0.1687915580246564</v>
       </c>
       <c r="F6">
-        <v>1.360046283280923</v>
+        <v>2.696633125916179</v>
       </c>
       <c r="G6">
-        <v>0.8867781786408528</v>
+        <v>1.623434509982545</v>
       </c>
       <c r="H6">
-        <v>0.663178459238452</v>
+        <v>1.470226434063775</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07777214516956654</v>
+        <v>0.1133363233691185</v>
       </c>
       <c r="K6">
-        <v>0.6822047898981936</v>
+        <v>0.4213125370912252</v>
       </c>
       <c r="L6">
-        <v>0.1733714026102717</v>
+        <v>0.3322428049552144</v>
       </c>
       <c r="M6">
-        <v>0.2104221010164302</v>
+        <v>0.2721194918042116</v>
       </c>
       <c r="N6">
-        <v>1.481803850290298</v>
+        <v>2.850525849791101</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9350531237998325</v>
+        <v>0.9057064872227159</v>
       </c>
       <c r="C7">
-        <v>0.0827631619385869</v>
+        <v>0.12247759101718</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06301562105961622</v>
+        <v>0.1687610500843189</v>
       </c>
       <c r="F7">
-        <v>1.376591436392232</v>
+        <v>2.696153144913794</v>
       </c>
       <c r="G7">
-        <v>0.8928182228319912</v>
+        <v>1.622106205881877</v>
       </c>
       <c r="H7">
-        <v>0.6636594285519806</v>
+        <v>1.468078574388088</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07787296097186669</v>
+        <v>0.1134276910173426</v>
       </c>
       <c r="K7">
-        <v>0.7162473689808735</v>
+        <v>0.4301971341669173</v>
       </c>
       <c r="L7">
-        <v>0.1788991593702605</v>
+        <v>0.3331376388013041</v>
       </c>
       <c r="M7">
-        <v>0.2190440238727689</v>
+        <v>0.2739534561914319</v>
       </c>
       <c r="N7">
-        <v>1.465544702843907</v>
+        <v>2.843500674694148</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.11401665245512</v>
+        <v>0.9481283639477738</v>
       </c>
       <c r="C8">
-        <v>0.08780863584522081</v>
+        <v>0.1243332961072525</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06661030691590852</v>
+        <v>0.168730265537981</v>
       </c>
       <c r="F8">
-        <v>1.45402385346874</v>
+        <v>2.696575735757818</v>
       </c>
       <c r="G8">
-        <v>0.9228604739587212</v>
+        <v>1.61792159765244</v>
       </c>
       <c r="H8">
-        <v>0.667764270349565</v>
+        <v>1.45975410343479</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07832313903198518</v>
+        <v>0.1138288134545355</v>
       </c>
       <c r="K8">
-        <v>0.8675672161611772</v>
+        <v>0.4698888125984411</v>
       </c>
       <c r="L8">
-        <v>0.2036504519600371</v>
+        <v>0.3373747045789131</v>
       </c>
       <c r="M8">
-        <v>0.2575251430059637</v>
+        <v>0.282335813361076</v>
       </c>
       <c r="N8">
-        <v>1.397055172435699</v>
+        <v>2.814166061549869</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.472900677405363</v>
+        <v>1.035014988773753</v>
       </c>
       <c r="C9">
-        <v>0.09773575049292305</v>
+        <v>0.1278311000915053</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07411597325442187</v>
+        <v>0.1690406591050291</v>
       </c>
       <c r="F9">
-        <v>1.623496204628125</v>
+        <v>2.706517797692683</v>
       </c>
       <c r="G9">
-        <v>0.9953163481117855</v>
+        <v>1.615743766124737</v>
       </c>
       <c r="H9">
-        <v>0.683549340395146</v>
+        <v>1.447568956861161</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07921960326680377</v>
+        <v>0.11460746821637</v>
       </c>
       <c r="K9">
-        <v>1.169523306128099</v>
+        <v>0.5494568362924213</v>
       </c>
       <c r="L9">
-        <v>0.2536655638037075</v>
+        <v>0.3467125063339864</v>
       </c>
       <c r="M9">
-        <v>0.3348634225690219</v>
+        <v>0.2998065491469788</v>
       </c>
       <c r="N9">
-        <v>1.275060982490793</v>
+        <v>2.762626032621029</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.742986422133839</v>
+        <v>1.101091067534242</v>
       </c>
       <c r="C10">
-        <v>0.1051064580181347</v>
+        <v>0.1303160046281846</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07994120605703969</v>
+        <v>0.169492737525367</v>
       </c>
       <c r="F10">
-        <v>1.760526576646058</v>
+        <v>2.719367378505567</v>
       </c>
       <c r="G10">
-        <v>1.058199764120033</v>
+        <v>1.617822699711468</v>
       </c>
       <c r="H10">
-        <v>0.7004866011738926</v>
+        <v>1.441134636074082</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07988123105226208</v>
+        <v>0.1151742937060405</v>
       </c>
       <c r="K10">
-        <v>1.395876571273419</v>
+        <v>0.6089680351103084</v>
       </c>
       <c r="L10">
-        <v>0.2915087635222022</v>
+        <v>0.354194919072043</v>
       </c>
       <c r="M10">
-        <v>0.3931552269260692</v>
+        <v>0.313267495362318</v>
       </c>
       <c r="N10">
-        <v>1.193545080480085</v>
+        <v>2.728404357496011</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.867627164796204</v>
+        <v>1.13163489839846</v>
       </c>
       <c r="C11">
-        <v>0.108490468661067</v>
+        <v>0.1314282702740073</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08266649929384329</v>
+        <v>0.1697466354257884</v>
       </c>
       <c r="F11">
-        <v>1.826008337031197</v>
+        <v>2.726415136283819</v>
       </c>
       <c r="G11">
-        <v>1.089237828593568</v>
+        <v>1.619568374007187</v>
       </c>
       <c r="H11">
-        <v>0.7095016891993424</v>
+        <v>1.438753264448451</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0801815929291827</v>
+        <v>0.1154309332781054</v>
       </c>
       <c r="K11">
-        <v>1.500148632328688</v>
+        <v>0.6362693850662424</v>
       </c>
       <c r="L11">
-        <v>0.3090097419939326</v>
+        <v>0.3577328469339136</v>
       </c>
       <c r="M11">
-        <v>0.4200717455366814</v>
+        <v>0.3195261315836078</v>
       </c>
       <c r="N11">
-        <v>1.158369401631198</v>
+        <v>2.713626657672513</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.915114697159567</v>
+        <v>1.14327049346133</v>
       </c>
       <c r="C12">
-        <v>0.1097776617000861</v>
+        <v>0.1318468657920064</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08371001521239663</v>
+        <v>0.1698496806148313</v>
       </c>
       <c r="F12">
-        <v>1.851295033219159</v>
+        <v>2.729256604618541</v>
       </c>
       <c r="G12">
-        <v>1.101371171536897</v>
+        <v>1.620344496896905</v>
       </c>
       <c r="H12">
-        <v>0.7131174998207115</v>
+        <v>1.437929871392626</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08029512482836054</v>
+        <v>0.1155279335491386</v>
       </c>
       <c r="K12">
-        <v>1.53984961801973</v>
+        <v>0.64664050304836</v>
       </c>
       <c r="L12">
-        <v>0.315682156194967</v>
+        <v>0.359091746654201</v>
       </c>
       <c r="M12">
-        <v>0.4303287194776999</v>
+        <v>0.321915446059009</v>
       </c>
       <c r="N12">
-        <v>1.145336914213495</v>
+        <v>2.708144299356704</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.904874006785548</v>
+        <v>1.140761485348094</v>
       </c>
       <c r="C13">
-        <v>0.1095001646046114</v>
+        <v>0.1317568289998761</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08348475247402476</v>
+        <v>0.1698271817341208</v>
       </c>
       <c r="F13">
-        <v>1.845826657550703</v>
+        <v>2.728636969870209</v>
       </c>
       <c r="G13">
-        <v>1.098740636757867</v>
+        <v>1.620172226337203</v>
       </c>
       <c r="H13">
-        <v>0.7123295587561955</v>
+        <v>1.438103719087493</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08027068499763956</v>
+        <v>0.1155070511159764</v>
       </c>
       <c r="K13">
-        <v>1.531289248330069</v>
+        <v>0.6444054481267756</v>
       </c>
       <c r="L13">
-        <v>0.3142430554766946</v>
+        <v>0.3587982330016644</v>
       </c>
       <c r="M13">
-        <v>0.428116723254945</v>
+        <v>0.3214000079926365</v>
       </c>
       <c r="N13">
-        <v>1.148130665396138</v>
+        <v>2.709319968530139</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.871528005435408</v>
+        <v>1.132590779631613</v>
       </c>
       <c r="C14">
-        <v>0.1085962439730395</v>
+        <v>0.1314627603264995</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08275211536842875</v>
+        <v>0.1697549749554135</v>
       </c>
       <c r="F14">
-        <v>1.828078638214734</v>
+        <v>2.726645447271963</v>
       </c>
       <c r="G14">
-        <v>1.090228250890192</v>
+        <v>1.619629919613132</v>
       </c>
       <c r="H14">
-        <v>0.7097950342298134</v>
+        <v>1.438683952998247</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08019093817047818</v>
+        <v>0.1154389172801906</v>
       </c>
       <c r="K14">
-        <v>1.503410370140443</v>
+        <v>0.6371219697562367</v>
       </c>
       <c r="L14">
-        <v>0.3095577558690366</v>
+        <v>0.3578442610939447</v>
       </c>
       <c r="M14">
-        <v>0.4209142636887933</v>
+        <v>0.3197223157973497</v>
       </c>
       <c r="N14">
-        <v>1.157291361430673</v>
+        <v>2.713173343037575</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.851141255317685</v>
+        <v>1.127594997616143</v>
       </c>
       <c r="C15">
-        <v>0.1080433542576316</v>
+        <v>0.1312822971302694</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08230487313362644</v>
+        <v>0.1697116436187827</v>
       </c>
       <c r="F15">
-        <v>1.817272469586015</v>
+        <v>2.725448056377047</v>
       </c>
       <c r="G15">
-        <v>1.085064579269385</v>
+        <v>1.619312728342223</v>
       </c>
       <c r="H15">
-        <v>0.7082692916825124</v>
+        <v>1.43904956812942</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08014206003905855</v>
+        <v>0.1153971591592402</v>
       </c>
       <c r="K15">
-        <v>1.486362677811059</v>
+        <v>0.6326648771778878</v>
       </c>
       <c r="L15">
-        <v>0.3066938830371839</v>
+        <v>0.3572624176339332</v>
       </c>
       <c r="M15">
-        <v>0.4165111318656045</v>
+        <v>0.3186971909450662</v>
       </c>
       <c r="N15">
-        <v>1.162940453394882</v>
+        <v>2.715548446403595</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.734879401789073</v>
+        <v>1.099104682595623</v>
       </c>
       <c r="C16">
-        <v>0.1048860360579127</v>
+        <v>0.1302429516329937</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07976467441590529</v>
+        <v>0.1694771122629213</v>
       </c>
       <c r="F16">
-        <v>1.756313660362295</v>
+        <v>2.718930963520549</v>
       </c>
       <c r="G16">
-        <v>1.056222818966205</v>
+        <v>1.617724716459506</v>
       </c>
       <c r="H16">
-        <v>0.6999249461046304</v>
+        <v>1.44130123691663</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07986157925835258</v>
+        <v>0.1151574965223681</v>
       </c>
       <c r="K16">
-        <v>1.389090712394335</v>
+        <v>0.6071884183635916</v>
       </c>
       <c r="L16">
-        <v>0.2903711270820253</v>
+        <v>0.3539663956413079</v>
       </c>
       <c r="M16">
-        <v>0.3914047780009255</v>
+        <v>0.3128611875127874</v>
       </c>
       <c r="N16">
-        <v>1.195883396368217</v>
+        <v>2.729386013961971</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.664034574034588</v>
+        <v>1.081750784406296</v>
       </c>
       <c r="C17">
-        <v>0.1029579451717453</v>
+        <v>0.1296007116642954</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07822610922096374</v>
+        <v>0.1693455645186432</v>
       </c>
       <c r="F17">
-        <v>1.719749166829303</v>
+        <v>2.71524071341581</v>
       </c>
       <c r="G17">
-        <v>1.03917298254278</v>
+        <v>1.6169554397067</v>
       </c>
       <c r="H17">
-        <v>0.6951508759100733</v>
+        <v>1.442822254712809</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07968927318905372</v>
+        <v>0.1150101541981634</v>
       </c>
       <c r="K17">
-        <v>1.329770480079532</v>
+        <v>0.5916179798198584</v>
       </c>
       <c r="L17">
-        <v>0.2804336714321494</v>
+        <v>0.351978659826031</v>
       </c>
       <c r="M17">
-        <v>0.3761098254772079</v>
+        <v>0.3093155165737542</v>
       </c>
       <c r="N17">
-        <v>1.216590456735737</v>
+        <v>2.738077261551609</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.623451663042488</v>
+        <v>1.071815007973441</v>
       </c>
       <c r="C18">
-        <v>0.1018517963572734</v>
+        <v>0.1292296050475557</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07734821824053739</v>
+        <v>0.1692744450655503</v>
       </c>
       <c r="F18">
-        <v>1.699011924816205</v>
+        <v>2.713231372658726</v>
       </c>
       <c r="G18">
-        <v>1.029593345736259</v>
+        <v>1.616588265272867</v>
       </c>
       <c r="H18">
-        <v>0.6925274090953764</v>
+        <v>1.44374846622587</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0795901170535771</v>
+        <v>0.1149252932443616</v>
       </c>
       <c r="K18">
-        <v>1.295771871108855</v>
+        <v>0.5826838861561896</v>
       </c>
       <c r="L18">
-        <v>0.274744561680734</v>
+        <v>0.3508480002506076</v>
       </c>
       <c r="M18">
-        <v>0.3673497155086167</v>
+        <v>0.307288872647149</v>
       </c>
       <c r="N18">
-        <v>1.228679162386783</v>
+        <v>2.743150584445395</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.609738382956124</v>
+        <v>1.068458793781105</v>
       </c>
       <c r="C19">
-        <v>0.101477723825127</v>
+        <v>0.1291036611589647</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07705217082664007</v>
+        <v>0.1692511467224094</v>
       </c>
       <c r="F19">
-        <v>1.692039986371086</v>
+        <v>2.712570493772787</v>
       </c>
       <c r="G19">
-        <v>1.026387947718803</v>
+        <v>1.616476876768786</v>
       </c>
       <c r="H19">
-        <v>0.6916597829942503</v>
+        <v>1.444070889539574</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07955653936452833</v>
+        <v>0.1148965415647041</v>
       </c>
       <c r="K19">
-        <v>1.28428045767015</v>
+        <v>0.579662676338387</v>
       </c>
       <c r="L19">
-        <v>0.2728227854439069</v>
+        <v>0.3504673520033634</v>
       </c>
       <c r="M19">
-        <v>0.3643898715011886</v>
+        <v>0.3066048767097698</v>
       </c>
       <c r="N19">
-        <v>1.23280245829708</v>
+        <v>2.744881092218243</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.671558801098769</v>
+        <v>1.083593407592048</v>
       </c>
       <c r="C20">
-        <v>0.1031628911352556</v>
+        <v>0.129669255806796</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07838915765979593</v>
+        <v>0.1693590980591502</v>
       </c>
       <c r="F20">
-        <v>1.723610859295775</v>
+        <v>2.715621833699402</v>
       </c>
       <c r="G20">
-        <v>1.040964264289741</v>
+        <v>1.617029537667847</v>
       </c>
       <c r="H20">
-        <v>0.6956463155217705</v>
+        <v>1.44265502455093</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0797076215033421</v>
+        <v>0.1150258508583377</v>
       </c>
       <c r="K20">
-        <v>1.336072519397248</v>
+        <v>0.5932732451185245</v>
       </c>
       <c r="L20">
-        <v>0.2814887437135951</v>
+        <v>0.3521889510927565</v>
       </c>
       <c r="M20">
-        <v>0.3777341071984281</v>
+        <v>0.3096916425368477</v>
       </c>
       <c r="N20">
-        <v>1.214367579859946</v>
+        <v>2.737144368417162</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.881314419141631</v>
+        <v>1.134988836942426</v>
       </c>
       <c r="C21">
-        <v>0.1088615807452129</v>
+        <v>0.1315492057676764</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08296699079576797</v>
+        <v>0.1697759968869867</v>
       </c>
       <c r="F21">
-        <v>1.833278043061327</v>
+        <v>2.727225722613582</v>
       </c>
       <c r="G21">
-        <v>1.092717982214467</v>
+        <v>1.619786084838296</v>
       </c>
       <c r="H21">
-        <v>0.7105338898801961</v>
+        <v>1.438511397640568</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08021436841405816</v>
+        <v>0.1154589348954218</v>
       </c>
       <c r="K21">
-        <v>1.511592991083234</v>
+        <v>0.63926041911418</v>
       </c>
       <c r="L21">
-        <v>0.310932682110348</v>
+        <v>0.3581239466871722</v>
       </c>
       <c r="M21">
-        <v>0.4230279990555346</v>
+        <v>0.3202145718087408</v>
       </c>
       <c r="N21">
-        <v>1.154592718469715</v>
+        <v>2.712038429095614</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.020102446496935</v>
+        <v>1.168982474748532</v>
       </c>
       <c r="C22">
-        <v>0.1126201552091075</v>
+        <v>0.132762739555055</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08602628321448691</v>
+        <v>0.1700886627448561</v>
       </c>
       <c r="F22">
-        <v>1.907828650907675</v>
+        <v>2.735815661063228</v>
       </c>
       <c r="G22">
-        <v>1.128772147142627</v>
+        <v>1.622258406394053</v>
       </c>
       <c r="H22">
-        <v>0.7214482478331519</v>
+        <v>1.436260124077037</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08054427786250784</v>
+        <v>0.1157409061072343</v>
       </c>
       <c r="K22">
-        <v>1.627576082891125</v>
+        <v>0.6695060950553113</v>
       </c>
       <c r="L22">
-        <v>0.3304414061773713</v>
+        <v>0.362114448948148</v>
       </c>
       <c r="M22">
-        <v>0.4530083743282702</v>
+        <v>0.3272043750291118</v>
       </c>
       <c r="N22">
-        <v>1.117210926866754</v>
+        <v>2.696292627879295</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.945861396139321</v>
+        <v>1.150802653332732</v>
       </c>
       <c r="C23">
-        <v>0.110610553150714</v>
+        <v>0.1321164335385774</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08438707936239709</v>
+        <v>0.1699181214737102</v>
       </c>
       <c r="F23">
-        <v>1.867763115877523</v>
+        <v>2.731139077931019</v>
       </c>
       <c r="G23">
-        <v>1.109314701350428</v>
+        <v>1.620877493569964</v>
       </c>
       <c r="H23">
-        <v>0.7155098955252868</v>
+        <v>1.437419897852266</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08036835826931465</v>
+        <v>0.1155905141113038</v>
       </c>
       <c r="K23">
-        <v>1.565547614800522</v>
+        <v>0.6533460858648255</v>
       </c>
       <c r="L23">
-        <v>0.3200035279277955</v>
+        <v>0.3599744693673301</v>
       </c>
       <c r="M23">
-        <v>0.4369702734882281</v>
+        <v>0.3234635397669123</v>
       </c>
       <c r="N23">
-        <v>1.137003355999127</v>
+        <v>2.704635833780266</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.668156643508894</v>
+        <v>1.08276022924332</v>
       </c>
       <c r="C24">
-        <v>0.1030702278831441</v>
+        <v>0.1296382728384629</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07831542279535242</v>
+        <v>0.1693529654977226</v>
       </c>
       <c r="F24">
-        <v>1.72186410582124</v>
+        <v>2.715449179596348</v>
       </c>
       <c r="G24">
-        <v>1.040153734898325</v>
+        <v>1.616995804067884</v>
       </c>
       <c r="H24">
-        <v>0.6954219507461232</v>
+        <v>1.442730468071844</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07969932651760914</v>
+        <v>0.1150187548701957</v>
       </c>
       <c r="K24">
-        <v>1.333223041273186</v>
+        <v>0.5925248449614742</v>
       </c>
       <c r="L24">
-        <v>0.2810116708784562</v>
+        <v>0.3520938406617802</v>
       </c>
       <c r="M24">
-        <v>0.376999666652118</v>
+        <v>0.3095215591936338</v>
       </c>
       <c r="N24">
-        <v>1.21537197058057</v>
+        <v>2.737565890763484</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.374807354179183</v>
+        <v>1.011115424867825</v>
       </c>
       <c r="C25">
-        <v>0.09504107187843402</v>
+        <v>0.1268998505905827</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07203338618467825</v>
+        <v>0.1689172033927093</v>
       </c>
       <c r="F25">
-        <v>1.575586527226079</v>
+        <v>2.702853658843679</v>
       </c>
       <c r="G25">
-        <v>0.9741273069415257</v>
+        <v>1.615687155681186</v>
       </c>
       <c r="H25">
-        <v>0.6783891914216298</v>
+        <v>1.450422784814648</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07897615056921126</v>
+        <v>0.1143977143598782</v>
       </c>
       <c r="K25">
-        <v>1.087146449414632</v>
+        <v>0.5277464639857214</v>
       </c>
       <c r="L25">
-        <v>0.2399574561129469</v>
+        <v>0.3440767817058088</v>
       </c>
       <c r="M25">
-        <v>0.3137080059478663</v>
+        <v>0.2949701351980991</v>
       </c>
       <c r="N25">
-        <v>1.30668551829374</v>
+        <v>2.775928647892037</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9598733014176446</v>
+        <v>1.162989276991738</v>
       </c>
       <c r="C2">
-        <v>0.1248264984811058</v>
+        <v>0.08917598498533152</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1687470901427996</v>
+        <v>0.0676140437268522</v>
       </c>
       <c r="F2">
-        <v>2.697307377516523</v>
+        <v>1.476135440955716</v>
       </c>
       <c r="G2">
-        <v>1.617195584468732</v>
+        <v>0.9318686104317777</v>
       </c>
       <c r="H2">
-        <v>1.457778898511492</v>
+        <v>0.6693783472626507</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1139369751323933</v>
+        <v>0.07844622459238337</v>
       </c>
       <c r="K2">
-        <v>0.4807606763498313</v>
+        <v>0.9088745464953547</v>
       </c>
       <c r="L2">
-        <v>0.3385925687311584</v>
+        <v>0.2104499917410436</v>
       </c>
       <c r="M2">
-        <v>0.2846770866607642</v>
+        <v>0.268067247382632</v>
       </c>
       <c r="N2">
-        <v>2.80662303800154</v>
+        <v>1.379310304680381</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9260911653678932</v>
+        <v>1.021518770480611</v>
       </c>
       <c r="C3">
-        <v>0.1233853527657658</v>
+        <v>0.08521139221236496</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1687264768431209</v>
+        <v>0.06473676302130293</v>
       </c>
       <c r="F3">
-        <v>2.695877125465529</v>
+        <v>1.413298106634343</v>
       </c>
       <c r="G3">
-        <v>1.619758411478983</v>
+        <v>0.9067343126736915</v>
       </c>
       <c r="H3">
-        <v>1.463821603607244</v>
+        <v>0.6652678564859826</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1136226897306134</v>
+        <v>0.07809042308282166</v>
       </c>
       <c r="K3">
-        <v>0.4493613367476428</v>
+        <v>0.7894354032943625</v>
       </c>
       <c r="L3">
-        <v>0.3351386875223099</v>
+        <v>0.1908367928321937</v>
       </c>
       <c r="M3">
-        <v>0.2779653451877202</v>
+        <v>0.2376266353628189</v>
       </c>
       <c r="N3">
-        <v>2.828953703234568</v>
+        <v>1.431692996005303</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9058167965146708</v>
+        <v>0.935523848322191</v>
       </c>
       <c r="C4">
-        <v>0.1224825949474422</v>
+        <v>0.08277655088282643</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1687607500397483</v>
+        <v>0.06302490268045879</v>
       </c>
       <c r="F4">
-        <v>2.69614891956013</v>
+        <v>1.376787377297987</v>
       </c>
       <c r="G4">
-        <v>1.622091580609734</v>
+        <v>0.8928906924725339</v>
       </c>
       <c r="H4">
-        <v>1.468054073360221</v>
+        <v>0.6636661141605202</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1134287590252221</v>
+        <v>0.07787414377779811</v>
       </c>
       <c r="K4">
-        <v>0.4303013611670679</v>
+        <v>0.7166462522681627</v>
       </c>
       <c r="L4">
-        <v>0.3331482675718291</v>
+        <v>0.1789640285279432</v>
       </c>
       <c r="M4">
-        <v>0.2739750745281988</v>
+        <v>0.2191451344897537</v>
       </c>
       <c r="N4">
-        <v>2.843419383354188</v>
+        <v>1.465356207590819</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.897672991061512</v>
+        <v>0.9006771601117123</v>
       </c>
       <c r="C5">
-        <v>0.122110202683082</v>
+        <v>0.0817834306105496</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1687865566088682</v>
+        <v>0.06234064028436315</v>
       </c>
       <c r="F5">
-        <v>2.696549170415665</v>
+        <v>1.362405167142228</v>
       </c>
       <c r="G5">
-        <v>1.623233378348829</v>
+        <v>0.8876294036216876</v>
       </c>
       <c r="H5">
-        <v>1.469910272047727</v>
+        <v>0.6632365544811307</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1133494983291854</v>
+        <v>0.0777866357018322</v>
       </c>
       <c r="K5">
-        <v>0.4225896970491334</v>
+        <v>0.6871036110158997</v>
       </c>
       <c r="L5">
-        <v>0.3323700393624307</v>
+        <v>0.1741658027931905</v>
       </c>
       <c r="M5">
-        <v>0.2723820196153568</v>
+        <v>0.2116619044941856</v>
       </c>
       <c r="N5">
-        <v>2.849504035404436</v>
+        <v>1.479442772600287</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8963278694484984</v>
+        <v>0.8949021839079307</v>
       </c>
       <c r="C6">
-        <v>0.1220480943957156</v>
+        <v>0.08161844796105555</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1687915580246564</v>
+        <v>0.06222781181274328</v>
       </c>
       <c r="F6">
-        <v>2.696633125916179</v>
+        <v>1.360046283280923</v>
       </c>
       <c r="G6">
-        <v>1.623434509982545</v>
+        <v>0.8867781786408528</v>
       </c>
       <c r="H6">
-        <v>1.470226434063775</v>
+        <v>0.663178459238452</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1133363233691185</v>
+        <v>0.07777214516958075</v>
       </c>
       <c r="K6">
-        <v>0.4213125370912252</v>
+        <v>0.6822047898981936</v>
       </c>
       <c r="L6">
-        <v>0.3322428049552144</v>
+        <v>0.1733714026102717</v>
       </c>
       <c r="M6">
-        <v>0.2721194918042116</v>
+        <v>0.2104221010164196</v>
       </c>
       <c r="N6">
-        <v>2.850525849791101</v>
+        <v>1.481803850290252</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9057064872227159</v>
+        <v>0.9350531237997757</v>
       </c>
       <c r="C7">
-        <v>0.12247759101718</v>
+        <v>0.08276316193872191</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1687610500843189</v>
+        <v>0.06301562105960379</v>
       </c>
       <c r="F7">
-        <v>2.696153144913794</v>
+        <v>1.376591436392189</v>
       </c>
       <c r="G7">
-        <v>1.622106205881877</v>
+        <v>0.8928182228319486</v>
       </c>
       <c r="H7">
-        <v>1.468078574388088</v>
+        <v>0.6636594285519664</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1134276910173426</v>
+        <v>0.0778729609718436</v>
       </c>
       <c r="K7">
-        <v>0.4301971341669173</v>
+        <v>0.7162473689808166</v>
       </c>
       <c r="L7">
-        <v>0.3331376388013041</v>
+        <v>0.1788991593703102</v>
       </c>
       <c r="M7">
-        <v>0.2739534561914319</v>
+        <v>0.2190440238727724</v>
       </c>
       <c r="N7">
-        <v>2.843500674694148</v>
+        <v>1.465544702843957</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9481283639477738</v>
+        <v>1.114016652455064</v>
       </c>
       <c r="C8">
-        <v>0.1243332961072525</v>
+        <v>0.08780863584522791</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.168730265537981</v>
+        <v>0.0666103069159103</v>
       </c>
       <c r="F8">
-        <v>2.696575735757818</v>
+        <v>1.45402385346874</v>
       </c>
       <c r="G8">
-        <v>1.61792159765244</v>
+        <v>0.9228604739587638</v>
       </c>
       <c r="H8">
-        <v>1.45975410343479</v>
+        <v>0.6677642703495792</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1138288134545355</v>
+        <v>0.07832313903199051</v>
       </c>
       <c r="K8">
-        <v>0.4698888125984411</v>
+        <v>0.8675672161611203</v>
       </c>
       <c r="L8">
-        <v>0.3373747045789131</v>
+        <v>0.2036504519599944</v>
       </c>
       <c r="M8">
-        <v>0.282335813361076</v>
+        <v>0.2575251430059744</v>
       </c>
       <c r="N8">
-        <v>2.814166061549869</v>
+        <v>1.397055172435707</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.035014988773753</v>
+        <v>1.472900677405391</v>
       </c>
       <c r="C9">
-        <v>0.1278311000915053</v>
+        <v>0.09773575049303673</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1690406591050291</v>
+        <v>0.07411597325443608</v>
       </c>
       <c r="F9">
-        <v>2.706517797692683</v>
+        <v>1.623496204628125</v>
       </c>
       <c r="G9">
-        <v>1.615743766124737</v>
+        <v>0.9953163481117429</v>
       </c>
       <c r="H9">
-        <v>1.447568956861161</v>
+        <v>0.6835493403951602</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.11460746821637</v>
+        <v>0.07921960326676114</v>
       </c>
       <c r="K9">
-        <v>0.5494568362924213</v>
+        <v>1.169523306128127</v>
       </c>
       <c r="L9">
-        <v>0.3467125063339864</v>
+        <v>0.2536655638036933</v>
       </c>
       <c r="M9">
-        <v>0.2998065491469788</v>
+        <v>0.3348634225690006</v>
       </c>
       <c r="N9">
-        <v>2.762626032621029</v>
+        <v>1.275060982490785</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.101091067534242</v>
+        <v>1.742986422133811</v>
       </c>
       <c r="C10">
-        <v>0.1303160046281846</v>
+        <v>0.1051064580181205</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.169492737525367</v>
+        <v>0.0799412060570468</v>
       </c>
       <c r="F10">
-        <v>2.719367378505567</v>
+        <v>1.760526576646086</v>
       </c>
       <c r="G10">
-        <v>1.617822699711468</v>
+        <v>1.058199764120005</v>
       </c>
       <c r="H10">
-        <v>1.441134636074082</v>
+        <v>0.7004866011740347</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1151742937060405</v>
+        <v>0.07988123105234024</v>
       </c>
       <c r="K10">
-        <v>0.6089680351103084</v>
+        <v>1.395876571273391</v>
       </c>
       <c r="L10">
-        <v>0.354194919072043</v>
+        <v>0.2915087635221738</v>
       </c>
       <c r="M10">
-        <v>0.313267495362318</v>
+        <v>0.3931552269260763</v>
       </c>
       <c r="N10">
-        <v>2.728404357496011</v>
+        <v>1.193545080480163</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.13163489839846</v>
+        <v>1.867627164796147</v>
       </c>
       <c r="C11">
-        <v>0.1314282702740073</v>
+        <v>0.1084904686613086</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1697466354257884</v>
+        <v>0.08266649929382908</v>
       </c>
       <c r="F11">
-        <v>2.726415136283819</v>
+        <v>1.826008337031183</v>
       </c>
       <c r="G11">
-        <v>1.619568374007187</v>
+        <v>1.089237828593596</v>
       </c>
       <c r="H11">
-        <v>1.438753264448451</v>
+        <v>0.7095016891993566</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1154309332781054</v>
+        <v>0.08018159292927507</v>
       </c>
       <c r="K11">
-        <v>0.6362693850662424</v>
+        <v>1.500148632328774</v>
       </c>
       <c r="L11">
-        <v>0.3577328469339136</v>
+        <v>0.3090097419940179</v>
       </c>
       <c r="M11">
-        <v>0.3195261315836078</v>
+        <v>0.4200717455366529</v>
       </c>
       <c r="N11">
-        <v>2.713626657672513</v>
+        <v>1.158369401631262</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.14327049346133</v>
+        <v>1.915114697159453</v>
       </c>
       <c r="C12">
-        <v>0.1318468657920064</v>
+        <v>0.1097776616999795</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1698496806148313</v>
+        <v>0.08371001521239663</v>
       </c>
       <c r="F12">
-        <v>2.729256604618541</v>
+        <v>1.851295033219159</v>
       </c>
       <c r="G12">
-        <v>1.620344496896905</v>
+        <v>1.10137117153684</v>
       </c>
       <c r="H12">
-        <v>1.437929871392626</v>
+        <v>0.7131174998207115</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1155279335491386</v>
+        <v>0.08029512482842094</v>
       </c>
       <c r="K12">
-        <v>0.64664050304836</v>
+        <v>1.539849618019673</v>
       </c>
       <c r="L12">
-        <v>0.359091746654201</v>
+        <v>0.3156821561949101</v>
       </c>
       <c r="M12">
-        <v>0.321915446059009</v>
+        <v>0.4303287194776999</v>
       </c>
       <c r="N12">
-        <v>2.708144299356704</v>
+        <v>1.145336914213566</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.140761485348094</v>
+        <v>1.90487400678569</v>
       </c>
       <c r="C13">
-        <v>0.1317568289998761</v>
+        <v>0.1095001646047535</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1698271817341208</v>
+        <v>0.08348475247402476</v>
       </c>
       <c r="F13">
-        <v>2.728636969870209</v>
+        <v>1.845826657550703</v>
       </c>
       <c r="G13">
-        <v>1.620172226337203</v>
+        <v>1.09874063675781</v>
       </c>
       <c r="H13">
-        <v>1.438103719087493</v>
+        <v>0.7123295587562097</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1155070511159764</v>
+        <v>0.08027068499764312</v>
       </c>
       <c r="K13">
-        <v>0.6444054481267756</v>
+        <v>1.531289248330069</v>
       </c>
       <c r="L13">
-        <v>0.3587982330016644</v>
+        <v>0.3142430554767373</v>
       </c>
       <c r="M13">
-        <v>0.3214000079926365</v>
+        <v>0.4281167232549379</v>
       </c>
       <c r="N13">
-        <v>2.709319968530139</v>
+        <v>1.148130665396131</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.132590779631613</v>
+        <v>1.871528005435408</v>
       </c>
       <c r="C14">
-        <v>0.1314627603264995</v>
+        <v>0.1085962439731887</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1697549749554135</v>
+        <v>0.0827521153684323</v>
       </c>
       <c r="F14">
-        <v>2.726645447271963</v>
+        <v>1.828078638214734</v>
       </c>
       <c r="G14">
-        <v>1.619629919613132</v>
+        <v>1.090228250890192</v>
       </c>
       <c r="H14">
-        <v>1.438683952998247</v>
+        <v>0.7097950342297992</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1154389172801906</v>
+        <v>0.0801909381704391</v>
       </c>
       <c r="K14">
-        <v>0.6371219697562367</v>
+        <v>1.503410370140472</v>
       </c>
       <c r="L14">
-        <v>0.3578442610939447</v>
+        <v>0.3095577558690508</v>
       </c>
       <c r="M14">
-        <v>0.3197223157973497</v>
+        <v>0.420914263688779</v>
       </c>
       <c r="N14">
-        <v>2.713173343037575</v>
+        <v>1.157291361430637</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.127594997616143</v>
+        <v>1.851141255317685</v>
       </c>
       <c r="C15">
-        <v>0.1312822971302694</v>
+        <v>0.108043354257866</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1697116436187827</v>
+        <v>0.08230487313364065</v>
       </c>
       <c r="F15">
-        <v>2.725448056377047</v>
+        <v>1.817272469586015</v>
       </c>
       <c r="G15">
-        <v>1.619312728342223</v>
+        <v>1.085064579269385</v>
       </c>
       <c r="H15">
-        <v>1.43904956812942</v>
+        <v>0.7082692916825124</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1153971591592402</v>
+        <v>0.08014206003912605</v>
       </c>
       <c r="K15">
-        <v>0.6326648771778878</v>
+        <v>1.486362677811059</v>
       </c>
       <c r="L15">
-        <v>0.3572624176339332</v>
+        <v>0.3066938830371555</v>
       </c>
       <c r="M15">
-        <v>0.3186971909450662</v>
+        <v>0.4165111318656187</v>
       </c>
       <c r="N15">
-        <v>2.715548446403595</v>
+        <v>1.162940453394889</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.099104682595623</v>
+        <v>1.734879401789044</v>
       </c>
       <c r="C16">
-        <v>0.1302429516329937</v>
+        <v>0.1048860360576711</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1694771122629213</v>
+        <v>0.07976467441593016</v>
       </c>
       <c r="F16">
-        <v>2.718930963520549</v>
+        <v>1.756313660362295</v>
       </c>
       <c r="G16">
-        <v>1.617724716459506</v>
+        <v>1.056222818966219</v>
       </c>
       <c r="H16">
-        <v>1.44130123691663</v>
+        <v>0.6999249461044883</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1151574965223681</v>
+        <v>0.07986157925833481</v>
       </c>
       <c r="K16">
-        <v>0.6071884183635916</v>
+        <v>1.389090712394392</v>
       </c>
       <c r="L16">
-        <v>0.3539663956413079</v>
+        <v>0.2903711270819969</v>
       </c>
       <c r="M16">
-        <v>0.3128611875127874</v>
+        <v>0.3914047780009327</v>
       </c>
       <c r="N16">
-        <v>2.729386013961971</v>
+        <v>1.195883396368188</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.081750784406296</v>
+        <v>1.664034574034559</v>
       </c>
       <c r="C17">
-        <v>0.1296007116642954</v>
+        <v>0.1029579451718874</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1693455645186432</v>
+        <v>0.07822610922096374</v>
       </c>
       <c r="F17">
-        <v>2.71524071341581</v>
+        <v>1.719749166829303</v>
       </c>
       <c r="G17">
-        <v>1.6169554397067</v>
+        <v>1.039172982542823</v>
       </c>
       <c r="H17">
-        <v>1.442822254712809</v>
+        <v>0.6951508759100875</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1150101541981634</v>
+        <v>0.07968927318911057</v>
       </c>
       <c r="K17">
-        <v>0.5916179798198584</v>
+        <v>1.329770480079617</v>
       </c>
       <c r="L17">
-        <v>0.351978659826031</v>
+        <v>0.2804336714321494</v>
       </c>
       <c r="M17">
-        <v>0.3093155165737542</v>
+        <v>0.3761098254772079</v>
       </c>
       <c r="N17">
-        <v>2.738077261551609</v>
+        <v>1.21659045673573</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.071815007973441</v>
+        <v>1.62345166304263</v>
       </c>
       <c r="C18">
-        <v>0.1292296050475557</v>
+        <v>0.1018517963574084</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1692744450655503</v>
+        <v>0.07734821824053384</v>
       </c>
       <c r="F18">
-        <v>2.713231372658726</v>
+        <v>1.699011924816205</v>
       </c>
       <c r="G18">
-        <v>1.616588265272867</v>
+        <v>1.029593345736288</v>
       </c>
       <c r="H18">
-        <v>1.44374846622587</v>
+        <v>0.6925274090953764</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1149252932443616</v>
+        <v>0.07959011705356289</v>
       </c>
       <c r="K18">
-        <v>0.5826838861561896</v>
+        <v>1.295771871108911</v>
       </c>
       <c r="L18">
-        <v>0.3508480002506076</v>
+        <v>0.2747445616806914</v>
       </c>
       <c r="M18">
-        <v>0.307288872647149</v>
+        <v>0.3673497155086167</v>
       </c>
       <c r="N18">
-        <v>2.743150584445395</v>
+        <v>1.228679162386854</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.068458793781105</v>
+        <v>1.609738382956238</v>
       </c>
       <c r="C19">
-        <v>0.1291036611589647</v>
+        <v>0.101477723825127</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1692511467224094</v>
+        <v>0.07705217082664007</v>
       </c>
       <c r="F19">
-        <v>2.712570493772787</v>
+        <v>1.6920399863711</v>
       </c>
       <c r="G19">
-        <v>1.616476876768786</v>
+        <v>1.026387947718717</v>
       </c>
       <c r="H19">
-        <v>1.444070889539574</v>
+        <v>0.6916597829942788</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1148965415647041</v>
+        <v>0.07955653936454965</v>
       </c>
       <c r="K19">
-        <v>0.579662676338387</v>
+        <v>1.284280457670178</v>
       </c>
       <c r="L19">
-        <v>0.3504673520033634</v>
+        <v>0.2728227854439211</v>
       </c>
       <c r="M19">
-        <v>0.3066048767097698</v>
+        <v>0.3643898715011957</v>
       </c>
       <c r="N19">
-        <v>2.744881092218243</v>
+        <v>1.232802458297087</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.083593407592048</v>
+        <v>1.671558801098826</v>
       </c>
       <c r="C20">
-        <v>0.129669255806796</v>
+        <v>0.1031628911353906</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1693590980591502</v>
+        <v>0.07838915765981014</v>
       </c>
       <c r="F20">
-        <v>2.715621833699402</v>
+        <v>1.723610859295775</v>
       </c>
       <c r="G20">
-        <v>1.617029537667847</v>
+        <v>1.040964264289812</v>
       </c>
       <c r="H20">
-        <v>1.44265502455093</v>
+        <v>0.6956463155217705</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1150258508583377</v>
+        <v>0.07970762150330657</v>
       </c>
       <c r="K20">
-        <v>0.5932732451185245</v>
+        <v>1.33607251939722</v>
       </c>
       <c r="L20">
-        <v>0.3521889510927565</v>
+        <v>0.2814887437135098</v>
       </c>
       <c r="M20">
-        <v>0.3096916425368477</v>
+        <v>0.3777341071984281</v>
       </c>
       <c r="N20">
-        <v>2.737144368417162</v>
+        <v>1.214367579859982</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.134988836942426</v>
+        <v>1.881314419141802</v>
       </c>
       <c r="C21">
-        <v>0.1315492057676764</v>
+        <v>0.1088615807453621</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1697759968869867</v>
+        <v>0.08296699079578573</v>
       </c>
       <c r="F21">
-        <v>2.727225722613582</v>
+        <v>1.833278043061313</v>
       </c>
       <c r="G21">
-        <v>1.619786084838296</v>
+        <v>1.092717982214452</v>
       </c>
       <c r="H21">
-        <v>1.438511397640568</v>
+        <v>0.7105338898801818</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1154589348954218</v>
+        <v>0.08021436841402618</v>
       </c>
       <c r="K21">
-        <v>0.63926041911418</v>
+        <v>1.511592991083262</v>
       </c>
       <c r="L21">
-        <v>0.3581239466871722</v>
+        <v>0.3109326821103195</v>
       </c>
       <c r="M21">
-        <v>0.3202145718087408</v>
+        <v>0.4230279990555417</v>
       </c>
       <c r="N21">
-        <v>2.712038429095614</v>
+        <v>1.154592718469743</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.168982474748532</v>
+        <v>2.020102446496878</v>
       </c>
       <c r="C22">
-        <v>0.132762739555055</v>
+        <v>0.1126201552091075</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1700886627448561</v>
+        <v>0.08602628321448336</v>
       </c>
       <c r="F22">
-        <v>2.735815661063228</v>
+        <v>1.907828650907675</v>
       </c>
       <c r="G22">
-        <v>1.622258406394053</v>
+        <v>1.128772147142612</v>
       </c>
       <c r="H22">
-        <v>1.436260124077037</v>
+        <v>0.7214482478332798</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1157409061072343</v>
+        <v>0.08054427786235507</v>
       </c>
       <c r="K22">
-        <v>0.6695060950553113</v>
+        <v>1.627576082891125</v>
       </c>
       <c r="L22">
-        <v>0.362114448948148</v>
+        <v>0.3304414061773997</v>
       </c>
       <c r="M22">
-        <v>0.3272043750291118</v>
+        <v>0.4530083743282702</v>
       </c>
       <c r="N22">
-        <v>2.696292627879295</v>
+        <v>1.117210926866761</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.150802653332732</v>
+        <v>1.945861396139378</v>
       </c>
       <c r="C23">
-        <v>0.1321164335385774</v>
+        <v>0.1106105531506003</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1699181214737102</v>
+        <v>0.08438707936238643</v>
       </c>
       <c r="F23">
-        <v>2.731139077931019</v>
+        <v>1.867763115877523</v>
       </c>
       <c r="G23">
-        <v>1.620877493569964</v>
+        <v>1.109314701350414</v>
       </c>
       <c r="H23">
-        <v>1.437419897852266</v>
+        <v>0.7155098955254999</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1155905141113038</v>
+        <v>0.08036835826927913</v>
       </c>
       <c r="K23">
-        <v>0.6533460858648255</v>
+        <v>1.565547614800579</v>
       </c>
       <c r="L23">
-        <v>0.3599744693673301</v>
+        <v>0.3200035279278097</v>
       </c>
       <c r="M23">
-        <v>0.3234635397669123</v>
+        <v>0.4369702734882566</v>
       </c>
       <c r="N23">
-        <v>2.704635833780266</v>
+        <v>1.137003355999141</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.08276022924332</v>
+        <v>1.668156643508894</v>
       </c>
       <c r="C24">
-        <v>0.1296382728384629</v>
+        <v>0.1030702278830162</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1693529654977226</v>
+        <v>0.07831542279535242</v>
       </c>
       <c r="F24">
-        <v>2.715449179596348</v>
+        <v>1.72186410582124</v>
       </c>
       <c r="G24">
-        <v>1.616995804067884</v>
+        <v>1.040153734898325</v>
       </c>
       <c r="H24">
-        <v>1.442730468071844</v>
+        <v>0.695421950746109</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1150187548701957</v>
+        <v>0.07969932651760203</v>
       </c>
       <c r="K24">
-        <v>0.5925248449614742</v>
+        <v>1.333223041273186</v>
       </c>
       <c r="L24">
-        <v>0.3520938406617802</v>
+        <v>0.2810116708786552</v>
       </c>
       <c r="M24">
-        <v>0.3095215591936338</v>
+        <v>0.376999666652118</v>
       </c>
       <c r="N24">
-        <v>2.737565890763484</v>
+        <v>1.215371970580499</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.011115424867825</v>
+        <v>1.374807354179211</v>
       </c>
       <c r="C25">
-        <v>0.1268998505905827</v>
+        <v>0.09504107187856192</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1689172033927093</v>
+        <v>0.07203338618469601</v>
       </c>
       <c r="F25">
-        <v>2.702853658843679</v>
+        <v>1.575586527226093</v>
       </c>
       <c r="G25">
-        <v>1.615687155681186</v>
+        <v>0.9741273069414405</v>
       </c>
       <c r="H25">
-        <v>1.450422784814648</v>
+        <v>0.6783891914217293</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1143977143598782</v>
+        <v>0.07897615056922191</v>
       </c>
       <c r="K25">
-        <v>0.5277464639857214</v>
+        <v>1.087146449414632</v>
       </c>
       <c r="L25">
-        <v>0.3440767817058088</v>
+        <v>0.2399574561128617</v>
       </c>
       <c r="M25">
-        <v>0.2949701351980991</v>
+        <v>0.3137080059478663</v>
       </c>
       <c r="N25">
-        <v>2.775928647892037</v>
+        <v>1.306685518293754</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.162989276991738</v>
+        <v>1.082467067449045</v>
       </c>
       <c r="C2">
-        <v>0.08917598498533152</v>
+        <v>0.09007094480897138</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0676140437268522</v>
+        <v>0.05848674813238475</v>
       </c>
       <c r="F2">
-        <v>1.476135440955716</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.9318686104317777</v>
+        <v>0.7315644026964208</v>
       </c>
       <c r="H2">
-        <v>0.6693783472626507</v>
+        <v>0.009680353342356326</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01684974833911257</v>
       </c>
       <c r="J2">
-        <v>0.07844622459238337</v>
+        <v>0.563603454528419</v>
       </c>
       <c r="K2">
-        <v>0.9088745464953547</v>
+        <v>0.6132699472531939</v>
       </c>
       <c r="L2">
-        <v>0.2104499917410436</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.268067247382632</v>
+        <v>0.9483016228179508</v>
       </c>
       <c r="N2">
-        <v>1.379310304680381</v>
+        <v>0.2616950914658389</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.021518770480611</v>
+        <v>0.9429444940041947</v>
       </c>
       <c r="C3">
-        <v>0.08521139221236496</v>
+        <v>0.08057792827912635</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06473676302130293</v>
+        <v>0.05198720563565828</v>
       </c>
       <c r="F3">
-        <v>1.413298106634343</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.9067343126736915</v>
+        <v>0.7129636047681345</v>
       </c>
       <c r="H3">
-        <v>0.6652678564859826</v>
+        <v>0.01247349232220112</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02056319414274288</v>
       </c>
       <c r="J3">
-        <v>0.07809042308282166</v>
+        <v>0.5599963141080195</v>
       </c>
       <c r="K3">
-        <v>0.7894354032943625</v>
+        <v>0.6076441807362229</v>
       </c>
       <c r="L3">
-        <v>0.1908367928321937</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2376266353628189</v>
+        <v>0.8254912195274642</v>
       </c>
       <c r="N3">
-        <v>1.431692996005303</v>
+        <v>0.2288739169341483</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.935523848322191</v>
+        <v>0.857146305732698</v>
       </c>
       <c r="C4">
-        <v>0.08277655088282643</v>
+        <v>0.07483866722714794</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06302490268045879</v>
+        <v>0.04797767232600414</v>
       </c>
       <c r="F4">
-        <v>1.376787377297987</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.8928906924725339</v>
+        <v>0.7017353442045362</v>
       </c>
       <c r="H4">
-        <v>0.6636661141605202</v>
+        <v>0.01443340373358062</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02314967264636403</v>
       </c>
       <c r="J4">
-        <v>0.07787414377779811</v>
+        <v>0.5579433268989078</v>
       </c>
       <c r="K4">
-        <v>0.7166462522681627</v>
+        <v>0.6042199194624018</v>
       </c>
       <c r="L4">
-        <v>0.1789640285279432</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2191451344897537</v>
+        <v>0.750203600201047</v>
       </c>
       <c r="N4">
-        <v>1.465356207590819</v>
+        <v>0.2087521729844752</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9006771601117123</v>
+        <v>0.8218862149329595</v>
       </c>
       <c r="C5">
-        <v>0.0817834306105496</v>
+        <v>0.07267538858226885</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06234064028436315</v>
+        <v>0.04628806448574174</v>
       </c>
       <c r="F5">
-        <v>1.362405167142228</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.8876294036216876</v>
+        <v>0.6956847709260501</v>
       </c>
       <c r="H5">
-        <v>0.6632365544811307</v>
+        <v>0.01529800485142346</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02437520531470483</v>
       </c>
       <c r="J5">
-        <v>0.0777866357018322</v>
+        <v>0.5563519788969131</v>
       </c>
       <c r="K5">
-        <v>0.6871036110158997</v>
+        <v>0.6017281593021551</v>
       </c>
       <c r="L5">
-        <v>0.1741658027931905</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2116619044941856</v>
+        <v>0.719817424038979</v>
       </c>
       <c r="N5">
-        <v>1.479442772600287</v>
+        <v>0.2006113127369247</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8949021839079307</v>
+        <v>0.8157129624925972</v>
       </c>
       <c r="C6">
-        <v>0.08161844796105555</v>
+        <v>0.07250927804398799</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06222781181274328</v>
+        <v>0.04594560577145756</v>
       </c>
       <c r="F6">
-        <v>1.360046283280923</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.8867781786408528</v>
+        <v>0.6928300924570934</v>
       </c>
       <c r="H6">
-        <v>0.663178459238452</v>
+        <v>0.01545319993999694</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02470910770813717</v>
       </c>
       <c r="J6">
-        <v>0.07777214516958075</v>
+        <v>0.5551219948349342</v>
       </c>
       <c r="K6">
-        <v>0.6822047898981936</v>
+        <v>0.5999706689189743</v>
       </c>
       <c r="L6">
-        <v>0.1733714026102717</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2104221010164196</v>
+        <v>0.7151069443892339</v>
       </c>
       <c r="N6">
-        <v>1.481803850290252</v>
+        <v>0.199325600831628</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9350531237997757</v>
+        <v>0.8558041158401863</v>
       </c>
       <c r="C7">
-        <v>0.08276316193872191</v>
+        <v>0.07533458918628355</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06301562105960379</v>
+        <v>0.04778636760354971</v>
       </c>
       <c r="F7">
-        <v>1.376591436392189</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.8928182228319486</v>
+        <v>0.6965960628894834</v>
       </c>
       <c r="H7">
-        <v>0.6636594285519664</v>
+        <v>0.01446579154091027</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02349181454887272</v>
       </c>
       <c r="J7">
-        <v>0.0778729609718436</v>
+        <v>0.5552826694222972</v>
       </c>
       <c r="K7">
-        <v>0.7162473689808166</v>
+        <v>0.6005188002264497</v>
       </c>
       <c r="L7">
-        <v>0.1788991593703102</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2190440238727724</v>
+        <v>0.7507073195606324</v>
       </c>
       <c r="N7">
-        <v>1.465544702843957</v>
+        <v>0.2088226645319367</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.114016652455064</v>
+        <v>1.033218168755496</v>
       </c>
       <c r="C8">
-        <v>0.08780863584522791</v>
+        <v>0.08747898427282053</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0666103069159103</v>
+        <v>0.05602460025897571</v>
       </c>
       <c r="F8">
-        <v>1.45402385346874</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.9228604739587638</v>
+        <v>0.7184471773494749</v>
       </c>
       <c r="H8">
-        <v>0.6677642703495792</v>
+        <v>0.01061363173929786</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01845407442051172</v>
       </c>
       <c r="J8">
-        <v>0.07832313903199051</v>
+        <v>0.5588640998386865</v>
       </c>
       <c r="K8">
-        <v>0.8675672161611203</v>
+        <v>0.6065048940612598</v>
       </c>
       <c r="L8">
-        <v>0.2036504519599944</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2575251430059744</v>
+        <v>0.9071409495346074</v>
       </c>
       <c r="N8">
-        <v>1.397055172435707</v>
+        <v>0.2506112561688099</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.472900677405391</v>
+        <v>1.381968923033099</v>
       </c>
       <c r="C9">
-        <v>0.09773575049303673</v>
+        <v>0.1112021057440984</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07411597325443608</v>
+        <v>0.07236570002684317</v>
       </c>
       <c r="F9">
-        <v>1.623496204628125</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.9953163481117429</v>
+        <v>0.772075277332263</v>
       </c>
       <c r="H9">
-        <v>0.6835493403951602</v>
+        <v>0.005083914516685661</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01064111179051075</v>
       </c>
       <c r="J9">
-        <v>0.07921960326676114</v>
+        <v>0.5719426095126892</v>
       </c>
       <c r="K9">
-        <v>1.169523306128127</v>
+        <v>0.6250633984590763</v>
       </c>
       <c r="L9">
-        <v>0.2536655638036933</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3348634225690006</v>
+        <v>1.213618630396354</v>
       </c>
       <c r="N9">
-        <v>1.275060982490785</v>
+        <v>0.3325966308334927</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.742986422133811</v>
+        <v>1.63472670481562</v>
       </c>
       <c r="C10">
-        <v>0.1051064580181205</v>
+        <v>0.1313492064104764</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0799412060570468</v>
+        <v>0.0796412741396928</v>
       </c>
       <c r="F10">
-        <v>1.760526576646086</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>1.058199764120005</v>
+        <v>0.7864481258265243</v>
       </c>
       <c r="H10">
-        <v>0.7004866011740347</v>
+        <v>0.002757090287081265</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.006888743927376595</v>
       </c>
       <c r="J10">
-        <v>0.07988123105234024</v>
+        <v>0.568958665814435</v>
       </c>
       <c r="K10">
-        <v>1.395876571273391</v>
+        <v>0.6206574918534002</v>
       </c>
       <c r="L10">
-        <v>0.2915087635221738</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3931552269260763</v>
+        <v>1.443498274749146</v>
       </c>
       <c r="N10">
-        <v>1.193545080480163</v>
+        <v>0.3756326312571758</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.867627164796147</v>
+        <v>1.721576878258873</v>
       </c>
       <c r="C11">
-        <v>0.1084904686613086</v>
+        <v>0.1583434629512368</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08266649929382908</v>
+        <v>0.04888601598500131</v>
       </c>
       <c r="F11">
-        <v>1.826008337031183</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.089237828593596</v>
+        <v>0.5967711731184835</v>
       </c>
       <c r="H11">
-        <v>0.7095016891993566</v>
+        <v>0.02140841593251608</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.006694660315305079</v>
       </c>
       <c r="J11">
-        <v>0.08018159292927507</v>
+        <v>0.46651978265038</v>
       </c>
       <c r="K11">
-        <v>1.500148632328774</v>
+        <v>0.4858177736725402</v>
       </c>
       <c r="L11">
-        <v>0.3090097419940179</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4200717455366529</v>
+        <v>1.575260188971868</v>
       </c>
       <c r="N11">
-        <v>1.158369401631262</v>
+        <v>0.2565740655275306</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.915114697159453</v>
+        <v>1.742363114574289</v>
       </c>
       <c r="C12">
-        <v>0.1097776616999795</v>
+        <v>0.1782438011993293</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08371001521239663</v>
+        <v>0.03004895845724498</v>
       </c>
       <c r="F12">
-        <v>1.851295033219159</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.10137117153684</v>
+        <v>0.464718585139714</v>
       </c>
       <c r="H12">
-        <v>0.7131174998207115</v>
+        <v>0.06034253144574819</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.006625871814675222</v>
       </c>
       <c r="J12">
-        <v>0.08029512482842094</v>
+        <v>0.3959211709307127</v>
       </c>
       <c r="K12">
-        <v>1.539849618019673</v>
+        <v>0.3981325634552064</v>
       </c>
       <c r="L12">
-        <v>0.3156821561949101</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4303287194776999</v>
+        <v>1.637618092801574</v>
       </c>
       <c r="N12">
-        <v>1.145336914213566</v>
+        <v>0.166522078284089</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.90487400678569</v>
+        <v>1.711890548345366</v>
       </c>
       <c r="C13">
-        <v>0.1095001646047535</v>
+        <v>0.1944054841318632</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08348475247402476</v>
+        <v>0.01899932601463838</v>
       </c>
       <c r="F13">
-        <v>1.845826657550703</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>1.09874063675781</v>
+        <v>0.3608716285157172</v>
       </c>
       <c r="H13">
-        <v>0.7123295587562097</v>
+        <v>0.116562365132495</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.007073278241365166</v>
       </c>
       <c r="J13">
-        <v>0.08027068499764312</v>
+        <v>0.3412277925023588</v>
       </c>
       <c r="K13">
-        <v>1.531289248330069</v>
+        <v>0.335364275438609</v>
       </c>
       <c r="L13">
-        <v>0.3142430554767373</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4281167232549379</v>
+        <v>1.650964563519182</v>
       </c>
       <c r="N13">
-        <v>1.148130665396131</v>
+        <v>0.09423220065883697</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.871528005435408</v>
+        <v>1.66717340337425</v>
       </c>
       <c r="C14">
-        <v>0.1085962439731887</v>
+        <v>0.2044262717308669</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0827521153684323</v>
+        <v>0.01592244892504285</v>
       </c>
       <c r="F14">
-        <v>1.828078638214734</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.090228250890192</v>
+        <v>0.3034595660652784</v>
       </c>
       <c r="H14">
-        <v>0.7097950342297992</v>
+        <v>0.1663338434266421</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.007733106659124189</v>
       </c>
       <c r="J14">
-        <v>0.0801909381704391</v>
+        <v>0.3112645553135849</v>
       </c>
       <c r="K14">
-        <v>1.503410370140472</v>
+        <v>0.3048122450452251</v>
       </c>
       <c r="L14">
-        <v>0.3095577558690508</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.420914263688779</v>
+        <v>1.638401652221773</v>
       </c>
       <c r="N14">
-        <v>1.157291361430637</v>
+        <v>0.05476004218026276</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.851141255317685</v>
+        <v>1.645105136666672</v>
       </c>
       <c r="C15">
-        <v>0.108043354257866</v>
+        <v>0.2060784255198342</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08230487313364065</v>
+        <v>0.01574490038694365</v>
       </c>
       <c r="F15">
-        <v>1.817272469586015</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>1.085064579269385</v>
+        <v>0.291715826496965</v>
       </c>
       <c r="H15">
-        <v>0.7082692916825124</v>
+        <v>0.1790395345197311</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.008164110826825777</v>
       </c>
       <c r="J15">
-        <v>0.08014206003912605</v>
+        <v>0.305469359473836</v>
       </c>
       <c r="K15">
-        <v>1.486362677811059</v>
+        <v>0.2997090954986339</v>
       </c>
       <c r="L15">
-        <v>0.3066938830371555</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4165111318656187</v>
+        <v>1.625073887250267</v>
       </c>
       <c r="N15">
-        <v>1.162940453394889</v>
+        <v>0.04648228586280823</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.734879401789044</v>
+        <v>1.542341840114773</v>
       </c>
       <c r="C16">
-        <v>0.1048860360576711</v>
+        <v>0.1938138267700111</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07976467441593016</v>
+        <v>0.01519154501271536</v>
       </c>
       <c r="F16">
-        <v>1.756313660362295</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.056222818966219</v>
+        <v>0.3045179785477679</v>
       </c>
       <c r="H16">
-        <v>0.6999249461044883</v>
+        <v>0.1673432394043175</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.009801187596797156</v>
       </c>
       <c r="J16">
-        <v>0.07986157925833481</v>
+        <v>0.3163189101582695</v>
       </c>
       <c r="K16">
-        <v>1.389090712394392</v>
+        <v>0.3124337141361222</v>
       </c>
       <c r="L16">
-        <v>0.2903711270819969</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3914047780009327</v>
+        <v>1.522787916314797</v>
       </c>
       <c r="N16">
-        <v>1.195883396368188</v>
+        <v>0.04515099454472349</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.664034574034559</v>
+        <v>1.487365161075587</v>
       </c>
       <c r="C17">
-        <v>0.1029579451718874</v>
+        <v>0.1790449200432391</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07822610922096374</v>
+        <v>0.01557147171147943</v>
       </c>
       <c r="F17">
-        <v>1.719749166829303</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.039172982542823</v>
+        <v>0.3425575392291336</v>
       </c>
       <c r="H17">
-        <v>0.6951508759100875</v>
+        <v>0.1301549333810641</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01076265578943758</v>
       </c>
       <c r="J17">
-        <v>0.07968927318911057</v>
+        <v>0.3395551654988438</v>
       </c>
       <c r="K17">
-        <v>1.329770480079617</v>
+        <v>0.3366213896159049</v>
       </c>
       <c r="L17">
-        <v>0.2804336714321494</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3761098254772079</v>
+        <v>1.451322290910127</v>
       </c>
       <c r="N17">
-        <v>1.21659045673573</v>
+        <v>0.06291234441881954</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.62345166304263</v>
+        <v>1.467641301538066</v>
       </c>
       <c r="C18">
-        <v>0.1018517963574084</v>
+        <v>0.1607212496451211</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07734821824053384</v>
+        <v>0.02093689814066568</v>
       </c>
       <c r="F18">
-        <v>1.699011924816205</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.029593345736288</v>
+        <v>0.4205228235606953</v>
       </c>
       <c r="H18">
-        <v>0.6925274090953764</v>
+        <v>0.07738631051239508</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01077471720488887</v>
       </c>
       <c r="J18">
-        <v>0.07959011705356289</v>
+        <v>0.382932369528568</v>
       </c>
       <c r="K18">
-        <v>1.295771871108911</v>
+        <v>0.3845027927450886</v>
       </c>
       <c r="L18">
-        <v>0.2747445616806914</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3673497155086167</v>
+        <v>1.397622300596794</v>
       </c>
       <c r="N18">
-        <v>1.228679162386854</v>
+        <v>0.1089962349386724</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.609738382956238</v>
+        <v>1.475806287974649</v>
       </c>
       <c r="C19">
-        <v>0.101477723825127</v>
+        <v>0.1437268875400122</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07705217082664007</v>
+        <v>0.03601189425230977</v>
       </c>
       <c r="F19">
-        <v>1.6920399863711</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>1.026387947718717</v>
+        <v>0.5375864453496462</v>
       </c>
       <c r="H19">
-        <v>0.6916597829942788</v>
+        <v>0.03155218825019546</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01054582882018806</v>
       </c>
       <c r="J19">
-        <v>0.07955653936454965</v>
+        <v>0.4451708321641448</v>
       </c>
       <c r="K19">
-        <v>1.284280457670178</v>
+        <v>0.4594099698708227</v>
       </c>
       <c r="L19">
-        <v>0.2728227854439211</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3643898715011957</v>
+        <v>1.364424709220401</v>
       </c>
       <c r="N19">
-        <v>1.232802458297087</v>
+        <v>0.189965602230302</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.671558801098826</v>
+        <v>1.565385744615924</v>
       </c>
       <c r="C20">
-        <v>0.1031628911353906</v>
+        <v>0.1277954429480417</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07838915765981014</v>
+        <v>0.077011654022062</v>
       </c>
       <c r="F20">
-        <v>1.723610859295775</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.040964264289812</v>
+        <v>0.7663304927902743</v>
       </c>
       <c r="H20">
-        <v>0.6956463155217705</v>
+        <v>0.00328977013400511</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.008676089680919929</v>
       </c>
       <c r="J20">
-        <v>0.07970762150330657</v>
+        <v>0.5612931088525528</v>
       </c>
       <c r="K20">
-        <v>1.33607251939722</v>
+        <v>0.6101755887917051</v>
       </c>
       <c r="L20">
-        <v>0.2814887437135098</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3777341071984281</v>
+        <v>1.386020593164687</v>
       </c>
       <c r="N20">
-        <v>1.214367579859982</v>
+        <v>0.3641401708438821</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.881314419141802</v>
+        <v>1.764722738569134</v>
       </c>
       <c r="C21">
-        <v>0.1088615807453621</v>
+        <v>0.1405462776440913</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08296699079578573</v>
+        <v>0.08984415414796487</v>
       </c>
       <c r="F21">
-        <v>1.833278043061313</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.092717982214452</v>
+        <v>0.8183464482251281</v>
       </c>
       <c r="H21">
-        <v>0.7105338898801818</v>
+        <v>0.001498461546502794</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.006039383476240445</v>
       </c>
       <c r="J21">
-        <v>0.08021436841402618</v>
+        <v>0.5801380476180356</v>
       </c>
       <c r="K21">
-        <v>1.511592991083262</v>
+        <v>0.634911236941889</v>
       </c>
       <c r="L21">
-        <v>0.3109326821103195</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4230279990555417</v>
+        <v>1.55810655619814</v>
       </c>
       <c r="N21">
-        <v>1.154592718469743</v>
+        <v>0.4245816138471099</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.020102446496878</v>
+        <v>1.894823101830099</v>
       </c>
       <c r="C22">
-        <v>0.1126201552091075</v>
+        <v>0.1492532866701453</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08602628321448336</v>
+        <v>0.09612155393398325</v>
       </c>
       <c r="F22">
-        <v>1.907828650907675</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>1.128772147142612</v>
+        <v>0.8469631691245212</v>
       </c>
       <c r="H22">
-        <v>0.7214482478332798</v>
+        <v>0.0007857513181337428</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004389819532160999</v>
       </c>
       <c r="J22">
-        <v>0.08054427786235507</v>
+        <v>0.5897233277304963</v>
       </c>
       <c r="K22">
-        <v>1.627576082891125</v>
+        <v>0.6473749268447335</v>
       </c>
       <c r="L22">
-        <v>0.3304414061773997</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4530083743282702</v>
+        <v>1.671282530074592</v>
       </c>
       <c r="N22">
-        <v>1.117210926866761</v>
+        <v>0.4549672587250768</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.945861396139378</v>
+        <v>1.826454331641884</v>
       </c>
       <c r="C23">
-        <v>0.1106105531506003</v>
+        <v>0.1439354225074112</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08438707936238643</v>
+        <v>0.09297422888621654</v>
       </c>
       <c r="F23">
-        <v>1.867763115877523</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>1.109314701350414</v>
+        <v>0.8374453270112525</v>
       </c>
       <c r="H23">
-        <v>0.7155098955254999</v>
+        <v>0.001131003764758054</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.004892558832029437</v>
       </c>
       <c r="J23">
-        <v>0.08036835826927913</v>
+        <v>0.587563574673041</v>
       </c>
       <c r="K23">
-        <v>1.565547614800579</v>
+        <v>0.6448682705262172</v>
       </c>
       <c r="L23">
-        <v>0.3200035279278097</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4369702734882566</v>
+        <v>1.609739750741738</v>
       </c>
       <c r="N23">
-        <v>1.137003355999141</v>
+        <v>0.4385172275477061</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.668156643508894</v>
+        <v>1.566171215859441</v>
       </c>
       <c r="C24">
-        <v>0.1030702278830162</v>
+        <v>0.1252243514424123</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07831542279535242</v>
+        <v>0.08076028447506545</v>
       </c>
       <c r="F24">
-        <v>1.72186410582124</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.040153734898325</v>
+        <v>0.7932726275858499</v>
       </c>
       <c r="H24">
-        <v>0.695421950746109</v>
+        <v>0.003067308647571654</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.008078310928917531</v>
       </c>
       <c r="J24">
-        <v>0.07969932651760203</v>
+        <v>0.575277292048483</v>
       </c>
       <c r="K24">
-        <v>1.333223041273186</v>
+        <v>0.6291754092426913</v>
       </c>
       <c r="L24">
-        <v>0.2810116708786552</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.376999666652118</v>
+        <v>1.379318200755023</v>
       </c>
       <c r="N24">
-        <v>1.215371970580499</v>
+        <v>0.376827471887907</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.374807354179211</v>
+        <v>1.286033179177963</v>
       </c>
       <c r="C25">
-        <v>0.09504107187856192</v>
+        <v>0.1056469864594973</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07203338618469601</v>
+        <v>0.06764372513810812</v>
       </c>
       <c r="F25">
-        <v>1.575586527226093</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.9741273069414405</v>
+        <v>0.7483338343862584</v>
       </c>
       <c r="H25">
-        <v>0.6783891914217293</v>
+        <v>0.006366003440545775</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.0129886351485009</v>
       </c>
       <c r="J25">
-        <v>0.07897615056922191</v>
+        <v>0.5635831680023671</v>
       </c>
       <c r="K25">
-        <v>1.087146449414632</v>
+        <v>0.6135079762179245</v>
       </c>
       <c r="L25">
-        <v>0.2399574561128617</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3137080059478663</v>
+        <v>1.132167156616987</v>
       </c>
       <c r="N25">
-        <v>1.306685518293754</v>
+        <v>0.3106926946351933</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.082467067449045</v>
+        <v>1.067826984811518</v>
       </c>
       <c r="C2">
-        <v>0.09007094480897138</v>
+        <v>0.09285215971071636</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05848674813238475</v>
+        <v>0.05563095874496327</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.7315644026964208</v>
+        <v>0.5839274171661515</v>
       </c>
       <c r="H2">
-        <v>0.009680353342356326</v>
+        <v>0.007115983322815544</v>
       </c>
       <c r="I2">
-        <v>0.01684974833911257</v>
+        <v>0.01195073401202862</v>
       </c>
       <c r="J2">
-        <v>0.563603454528419</v>
+        <v>0.4907426148350922</v>
       </c>
       <c r="K2">
-        <v>0.6132699472531939</v>
+        <v>0.497195673732147</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2092495809194261</v>
       </c>
       <c r="M2">
-        <v>0.9483016228179508</v>
+        <v>0.1650316918642574</v>
       </c>
       <c r="N2">
-        <v>0.2616950914658389</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9767231514300079</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2717608452624347</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9429444940041947</v>
+        <v>0.9313655727859498</v>
       </c>
       <c r="C3">
-        <v>0.08057792827912635</v>
+        <v>0.08102914364976499</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05198720563565828</v>
+        <v>0.04988909538858621</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7129636047681345</v>
+        <v>0.5827603458005797</v>
       </c>
       <c r="H3">
-        <v>0.01247349232220112</v>
+        <v>0.009299958652567039</v>
       </c>
       <c r="I3">
-        <v>0.02056319414274288</v>
+        <v>0.01463424971425376</v>
       </c>
       <c r="J3">
-        <v>0.5599963141080195</v>
+        <v>0.4899008176673476</v>
       </c>
       <c r="K3">
-        <v>0.6076441807362229</v>
+        <v>0.5011645827998947</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2142896468850068</v>
       </c>
       <c r="M3">
-        <v>0.8254912195274642</v>
+        <v>0.164622006700732</v>
       </c>
       <c r="N3">
-        <v>0.2288739169341483</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8496662770979526</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2382616405023583</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.857146305732698</v>
+        <v>0.8473341768335274</v>
       </c>
       <c r="C4">
-        <v>0.07483866722714794</v>
+        <v>0.07391537973830964</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04797767232600414</v>
+        <v>0.04633653380286162</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7017353442045362</v>
+        <v>0.5823161414439539</v>
       </c>
       <c r="H4">
-        <v>0.01443340373358062</v>
+        <v>0.01084148692659817</v>
       </c>
       <c r="I4">
-        <v>0.02314967264636403</v>
+        <v>0.01652445383475731</v>
       </c>
       <c r="J4">
-        <v>0.5579433268989078</v>
+        <v>0.4893290705590871</v>
       </c>
       <c r="K4">
-        <v>0.6042199194624018</v>
+        <v>0.5036057258978843</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2173703084033747</v>
       </c>
       <c r="M4">
-        <v>0.750203600201047</v>
+        <v>0.1649048368420978</v>
       </c>
       <c r="N4">
-        <v>0.2087521729844752</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7717380181834415</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2177212432890769</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8218862149329595</v>
+        <v>0.8127977209773292</v>
       </c>
       <c r="C5">
-        <v>0.07267538858226885</v>
+        <v>0.07121261235422338</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04628806448574174</v>
+        <v>0.04483874572931867</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.6956847709260501</v>
+        <v>0.581033994388676</v>
       </c>
       <c r="H5">
-        <v>0.01529800485142346</v>
+        <v>0.01152347074008788</v>
       </c>
       <c r="I5">
-        <v>0.02437520531470483</v>
+        <v>0.01745995998883743</v>
       </c>
       <c r="J5">
-        <v>0.5563519788969131</v>
+        <v>0.4884481530997249</v>
       </c>
       <c r="K5">
-        <v>0.6017281593021551</v>
+        <v>0.5037739207838072</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2182356639979268</v>
       </c>
       <c r="M5">
-        <v>0.719817424038979</v>
+        <v>0.1649217374675214</v>
       </c>
       <c r="N5">
-        <v>0.2006113127369247</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7402372365364727</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2094022837809035</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8157129624925972</v>
+        <v>0.8067802549890359</v>
       </c>
       <c r="C6">
-        <v>0.07250927804398799</v>
+        <v>0.07096591783101758</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04594560577145756</v>
+        <v>0.04453721918246245</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.6928300924570934</v>
+        <v>0.5794061433857607</v>
       </c>
       <c r="H6">
-        <v>0.01545319993999694</v>
+        <v>0.0116459972392599</v>
       </c>
       <c r="I6">
-        <v>0.02470910770813717</v>
+        <v>0.01775750827396827</v>
       </c>
       <c r="J6">
-        <v>0.5551219948349342</v>
+        <v>0.4875283811636066</v>
       </c>
       <c r="K6">
-        <v>0.5999706689189743</v>
+        <v>0.5027953707704604</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2179094054165525</v>
       </c>
       <c r="M6">
-        <v>0.7151069443892339</v>
+        <v>0.1646491841426236</v>
       </c>
       <c r="N6">
-        <v>0.199325600831628</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7353023920154556</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2080780505782371</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8558041158401863</v>
+        <v>0.8464245184088384</v>
       </c>
       <c r="C7">
-        <v>0.07533458918628355</v>
+        <v>0.07415659115402917</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04778636760354971</v>
+        <v>0.04622193863726842</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.6965960628894834</v>
+        <v>0.5797657787582153</v>
       </c>
       <c r="H7">
-        <v>0.01446579154091027</v>
+        <v>0.01087581257764227</v>
       </c>
       <c r="I7">
-        <v>0.02349181454887272</v>
+        <v>0.01690968477281807</v>
       </c>
       <c r="J7">
-        <v>0.5552826694222972</v>
+        <v>0.4821935459343507</v>
       </c>
       <c r="K7">
-        <v>0.6005188002264497</v>
+        <v>0.499548085252151</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2155278408892727</v>
       </c>
       <c r="M7">
-        <v>0.7507073195606324</v>
+        <v>0.163720246366589</v>
       </c>
       <c r="N7">
-        <v>0.2088226645319367</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7717080111576422</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2176718172229783</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.033218168755496</v>
+        <v>1.020866003892053</v>
       </c>
       <c r="C8">
-        <v>0.08747898427282053</v>
+        <v>0.08856643606776515</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05602460025897571</v>
+        <v>0.05363103069845465</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.7184471773494749</v>
+        <v>0.5829226709654662</v>
       </c>
       <c r="H8">
-        <v>0.01061363173929786</v>
+        <v>0.007866741501329017</v>
       </c>
       <c r="I8">
-        <v>0.01845407442051172</v>
+        <v>0.01329432515386308</v>
       </c>
       <c r="J8">
-        <v>0.5588640998386865</v>
+        <v>0.4715789348355344</v>
       </c>
       <c r="K8">
-        <v>0.6065048940612598</v>
+        <v>0.4907683612169649</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2076797458941186</v>
       </c>
       <c r="M8">
-        <v>0.9071409495346074</v>
+        <v>0.1622540809343942</v>
       </c>
       <c r="N8">
-        <v>0.2506112561688099</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9325769459726985</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2601008020293136</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.381968923033099</v>
+        <v>1.361454976782937</v>
       </c>
       <c r="C9">
-        <v>0.1112021057440984</v>
+        <v>0.1181117380808558</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07236570002684317</v>
+        <v>0.06804761055969166</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.772075277332263</v>
+        <v>0.5934813658287226</v>
       </c>
       <c r="H9">
-        <v>0.005083914516685661</v>
+        <v>0.003591115716643056</v>
       </c>
       <c r="I9">
-        <v>0.01064111179051075</v>
+        <v>0.00762518249597921</v>
       </c>
       <c r="J9">
-        <v>0.5719426095126892</v>
+        <v>0.4717050206066489</v>
       </c>
       <c r="K9">
-        <v>0.6250633984590763</v>
+        <v>0.4831772497324991</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1963641025838996</v>
       </c>
       <c r="M9">
-        <v>1.213618630396354</v>
+        <v>0.1666126965397723</v>
       </c>
       <c r="N9">
-        <v>0.3325966308334927</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.249092057556823</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3436842970439358</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.63472670481562</v>
+        <v>1.610348560009129</v>
       </c>
       <c r="C10">
-        <v>0.1313492064104764</v>
+        <v>0.1409078220588498</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0796412741396928</v>
+        <v>0.07450693451757928</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.7864481258265243</v>
+        <v>0.5933893631317062</v>
       </c>
       <c r="H10">
-        <v>0.002757090287081265</v>
+        <v>0.001910650775363898</v>
       </c>
       <c r="I10">
-        <v>0.006888743927376595</v>
+        <v>0.005097130405101069</v>
       </c>
       <c r="J10">
-        <v>0.568958665814435</v>
+        <v>0.4372798978634904</v>
       </c>
       <c r="K10">
-        <v>0.6206574918534002</v>
+        <v>0.4594900513305831</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1816547403722275</v>
       </c>
       <c r="M10">
-        <v>1.443498274749146</v>
+        <v>0.1651315286401598</v>
       </c>
       <c r="N10">
-        <v>0.3756326312571758</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.482565800368349</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3868499827148497</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.721576878258873</v>
+        <v>1.706678161565833</v>
       </c>
       <c r="C11">
-        <v>0.1583434629512368</v>
+        <v>0.1629481991496959</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04888601598500131</v>
+        <v>0.04630178067753299</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.5967711731184835</v>
+        <v>0.4720018849737215</v>
       </c>
       <c r="H11">
-        <v>0.02140841593251608</v>
+        <v>0.02060541713594688</v>
       </c>
       <c r="I11">
-        <v>0.006694660315305079</v>
+        <v>0.005272281222428177</v>
       </c>
       <c r="J11">
-        <v>0.46651978265038</v>
+        <v>0.33446759297928</v>
       </c>
       <c r="K11">
-        <v>0.4858177736725402</v>
+        <v>0.3604278876763942</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1458085232095705</v>
       </c>
       <c r="M11">
-        <v>1.575260188971868</v>
+        <v>0.1278928045829026</v>
       </c>
       <c r="N11">
-        <v>0.2565740655275306</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.603359127572872</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2637657072612143</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.742363114574289</v>
+        <v>1.735178956877547</v>
       </c>
       <c r="C12">
-        <v>0.1782438011993293</v>
+        <v>0.1777822452979336</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03004895845724498</v>
+        <v>0.02888373472571715</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.464718585139714</v>
+        <v>0.3825886473352682</v>
       </c>
       <c r="H12">
-        <v>0.06034253144574819</v>
+        <v>0.05950560207328692</v>
       </c>
       <c r="I12">
-        <v>0.006625871814675222</v>
+        <v>0.005230581069483264</v>
       </c>
       <c r="J12">
-        <v>0.3959211709307127</v>
+        <v>0.2899787016176489</v>
       </c>
       <c r="K12">
-        <v>0.3981325634552064</v>
+        <v>0.3049194733925731</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1276168415418066</v>
       </c>
       <c r="M12">
-        <v>1.637618092801574</v>
+        <v>0.1049569579693426</v>
       </c>
       <c r="N12">
-        <v>0.166522078284089</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.656951169963946</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1712906187279799</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.711890548345366</v>
+        <v>1.710698690093324</v>
       </c>
       <c r="C13">
-        <v>0.1944054841318632</v>
+        <v>0.18976043901705</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01899932601463838</v>
+        <v>0.0186176177558397</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.3608716285157172</v>
+        <v>0.3059186385758537</v>
       </c>
       <c r="H13">
-        <v>0.116562365132495</v>
+        <v>0.1156102812570481</v>
       </c>
       <c r="I13">
-        <v>0.007073278241365166</v>
+        <v>0.005506157220798613</v>
       </c>
       <c r="J13">
-        <v>0.3412277925023588</v>
+        <v>0.2732154805264777</v>
       </c>
       <c r="K13">
-        <v>0.335364275438609</v>
+        <v>0.2728402416792886</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1180852394587402</v>
       </c>
       <c r="M13">
-        <v>1.650964563519182</v>
+        <v>0.09027555585307567</v>
       </c>
       <c r="N13">
-        <v>0.09423220065883697</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.663907427541972</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.09755188993508312</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.66717340337425</v>
+        <v>1.669420903028822</v>
       </c>
       <c r="C14">
-        <v>0.2044262717308669</v>
+        <v>0.1972472911599681</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01592244892504285</v>
+        <v>0.0158335502542824</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.3034595660652784</v>
+        <v>0.2611765266287378</v>
       </c>
       <c r="H14">
-        <v>0.1663338434266421</v>
+        <v>0.1652608888414022</v>
       </c>
       <c r="I14">
-        <v>0.007733106659124189</v>
+        <v>0.005963964142568834</v>
       </c>
       <c r="J14">
-        <v>0.3112645553135849</v>
+        <v>0.268763767852839</v>
       </c>
       <c r="K14">
-        <v>0.3048122450452251</v>
+        <v>0.2602245090980038</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1146427081253588</v>
       </c>
       <c r="M14">
-        <v>1.638401652221773</v>
+        <v>0.08386277969194644</v>
       </c>
       <c r="N14">
-        <v>0.05476004218026276</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.647867202090993</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.05743565133437301</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.645105136666672</v>
+        <v>1.647894462533202</v>
       </c>
       <c r="C15">
-        <v>0.2060784255198342</v>
+        <v>0.1985921319540296</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01574490038694365</v>
+        <v>0.01571590700551839</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.291715826496965</v>
+        <v>0.2515034881223457</v>
       </c>
       <c r="H15">
-        <v>0.1790395345197311</v>
+        <v>0.1779086727313199</v>
       </c>
       <c r="I15">
-        <v>0.008164110826825777</v>
+        <v>0.00631513039674747</v>
       </c>
       <c r="J15">
-        <v>0.305469359473836</v>
+        <v>0.269496440673203</v>
       </c>
       <c r="K15">
-        <v>0.2997090954986339</v>
+        <v>0.2591970143436835</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1143737479223559</v>
       </c>
       <c r="M15">
-        <v>1.625073887250267</v>
+        <v>0.08313905638230068</v>
       </c>
       <c r="N15">
-        <v>0.04648228586280823</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.634133692065404</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04907345893376203</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.542341840114773</v>
+        <v>1.542414331038486</v>
       </c>
       <c r="C16">
-        <v>0.1938138267700111</v>
+        <v>0.1895540313411459</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01519154501271536</v>
+        <v>0.01532045870592391</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.3045179785477679</v>
+        <v>0.2592525831613131</v>
       </c>
       <c r="H16">
-        <v>0.1673432394043175</v>
+        <v>0.1659076044964536</v>
       </c>
       <c r="I16">
-        <v>0.009801187596797156</v>
+        <v>0.007457582122383677</v>
       </c>
       <c r="J16">
-        <v>0.3163189101582695</v>
+        <v>0.2902365741257924</v>
       </c>
       <c r="K16">
-        <v>0.3124337141361222</v>
+        <v>0.2739806930585651</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1184324068306422</v>
       </c>
       <c r="M16">
-        <v>1.522787916314797</v>
+        <v>0.0890852153324353</v>
       </c>
       <c r="N16">
-        <v>0.04515099454472349</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.535940388252669</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04820824690720826</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.487365161075587</v>
+        <v>1.484099825725281</v>
       </c>
       <c r="C17">
-        <v>0.1790449200432391</v>
+        <v>0.1779047190618712</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01557147171147943</v>
+        <v>0.01560750890146245</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.3425575392291336</v>
+        <v>0.2870159693451093</v>
       </c>
       <c r="H17">
-        <v>0.1301549333810641</v>
+        <v>0.1285467473152551</v>
       </c>
       <c r="I17">
-        <v>0.01076265578943758</v>
+        <v>0.008146455162684418</v>
       </c>
       <c r="J17">
-        <v>0.3395551654988438</v>
+        <v>0.3137744627667729</v>
       </c>
       <c r="K17">
-        <v>0.3366213896159049</v>
+        <v>0.2928461307453283</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1244596351022293</v>
       </c>
       <c r="M17">
-        <v>1.451322290910127</v>
+        <v>0.09668212300913837</v>
       </c>
       <c r="N17">
-        <v>0.06291234441881954</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.468657374640742</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.06670541916918182</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.467641301538066</v>
+        <v>1.459338150591918</v>
       </c>
       <c r="C18">
-        <v>0.1607212496451211</v>
+        <v>0.1633490328051153</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02093689814066568</v>
+        <v>0.02038799663334956</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.4205228235606953</v>
+        <v>0.3423259402690633</v>
       </c>
       <c r="H18">
-        <v>0.07738631051239508</v>
+        <v>0.07574841649778818</v>
       </c>
       <c r="I18">
-        <v>0.01077471720488887</v>
+        <v>0.008038085916786564</v>
       </c>
       <c r="J18">
-        <v>0.382932369528568</v>
+        <v>0.3481662401434633</v>
       </c>
       <c r="K18">
-        <v>0.3845027927450886</v>
+        <v>0.3254595428949862</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1359371713571189</v>
       </c>
       <c r="M18">
-        <v>1.397622300596794</v>
+        <v>0.1094134004330929</v>
       </c>
       <c r="N18">
-        <v>0.1089962349386724</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.420725823250365</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1141942013723138</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.475806287974649</v>
+        <v>1.461386918212952</v>
       </c>
       <c r="C19">
-        <v>0.1437268875400122</v>
+        <v>0.1499626178204068</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03601189425230977</v>
+        <v>0.03416434656943501</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.5375864453496462</v>
+        <v>0.4226369754512689</v>
       </c>
       <c r="H19">
-        <v>0.03155218825019546</v>
+        <v>0.03004121015842998</v>
       </c>
       <c r="I19">
-        <v>0.01054582882018806</v>
+        <v>0.007950082756511101</v>
       </c>
       <c r="J19">
-        <v>0.4451708321641448</v>
+        <v>0.3925408057389745</v>
       </c>
       <c r="K19">
-        <v>0.4594099698708227</v>
+        <v>0.3736860764599541</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1533886582503587</v>
       </c>
       <c r="M19">
-        <v>1.364424709220401</v>
+        <v>0.1280525045697356</v>
       </c>
       <c r="N19">
-        <v>0.189965602230302</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.394167524954099</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1973491095646693</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.565385744615924</v>
+        <v>1.54129747954201</v>
       </c>
       <c r="C20">
-        <v>0.1277954429480417</v>
+        <v>0.1377965559442629</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.077011654022062</v>
+        <v>0.07201593429766717</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.7663304927902743</v>
+        <v>0.5764637587217862</v>
       </c>
       <c r="H20">
-        <v>0.00328977013400511</v>
+        <v>0.00227294402632916</v>
       </c>
       <c r="I20">
-        <v>0.008676089680919929</v>
+        <v>0.006709189175468033</v>
       </c>
       <c r="J20">
-        <v>0.5612931088525528</v>
+        <v>0.4559773647942365</v>
       </c>
       <c r="K20">
-        <v>0.6101755887917051</v>
+        <v>0.4619290810823138</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1840757086708535</v>
       </c>
       <c r="M20">
-        <v>1.386020593164687</v>
+        <v>0.1639600827856604</v>
       </c>
       <c r="N20">
-        <v>0.3641401708438821</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.425384534757853</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3755746992465561</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.764722738569134</v>
+        <v>1.742219057188777</v>
       </c>
       <c r="C21">
-        <v>0.1405462776440913</v>
+        <v>0.1475241194274446</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08984415414796487</v>
+        <v>0.08465809451285011</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.8183464482251281</v>
+        <v>0.6319870083822536</v>
       </c>
       <c r="H21">
-        <v>0.001498461546502794</v>
+        <v>0.0009709757948623832</v>
       </c>
       <c r="I21">
-        <v>0.006039383476240445</v>
+        <v>0.004981573667337535</v>
       </c>
       <c r="J21">
-        <v>0.5801380476180356</v>
+        <v>0.3710960781239834</v>
       </c>
       <c r="K21">
-        <v>0.634911236941889</v>
+        <v>0.4397905592056865</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1720309194774927</v>
       </c>
       <c r="M21">
-        <v>1.55810655619814</v>
+        <v>0.1614054594785017</v>
       </c>
       <c r="N21">
-        <v>0.4245816138471099</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.593151076406826</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4349338635966546</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.894823101830099</v>
+        <v>1.874147096869223</v>
       </c>
       <c r="C22">
-        <v>0.1492532866701453</v>
+        <v>0.1537378021441214</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09612155393398325</v>
+        <v>0.09106695935502529</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.8469631691245212</v>
+        <v>0.669644512742309</v>
       </c>
       <c r="H22">
-        <v>0.0007857513181337428</v>
+        <v>0.0004822942401510044</v>
       </c>
       <c r="I22">
-        <v>0.004389819532160999</v>
+        <v>0.003732243937073498</v>
       </c>
       <c r="J22">
-        <v>0.5897233277304963</v>
+        <v>0.3221533988699079</v>
       </c>
       <c r="K22">
-        <v>0.6473749268447335</v>
+        <v>0.4220996650317659</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1634754073180034</v>
       </c>
       <c r="M22">
-        <v>1.671282530074592</v>
+        <v>0.158455026329726</v>
       </c>
       <c r="N22">
-        <v>0.4549672587250768</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.702256634608204</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.464224586199407</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.826454331641884</v>
+        <v>1.803778136223428</v>
       </c>
       <c r="C23">
-        <v>0.1439354225074112</v>
+        <v>0.1504699285321465</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09297422888621654</v>
+        <v>0.08766842840202216</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.8374453270112525</v>
+        <v>0.6496428349848031</v>
       </c>
       <c r="H23">
-        <v>0.001131003764758054</v>
+        <v>0.000713679976041881</v>
       </c>
       <c r="I23">
-        <v>0.004892558832029437</v>
+        <v>0.003965561826674957</v>
       </c>
       <c r="J23">
-        <v>0.587563574673041</v>
+        <v>0.3562757645660142</v>
       </c>
       <c r="K23">
-        <v>0.6448682705262172</v>
+        <v>0.4370125677129622</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1697925212694855</v>
       </c>
       <c r="M23">
-        <v>1.609739750741738</v>
+        <v>0.1623401454571933</v>
       </c>
       <c r="N23">
-        <v>0.4385172275477061</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.644200776090599</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4486471647243206</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.566171215859441</v>
+        <v>1.541209810221602</v>
       </c>
       <c r="C24">
-        <v>0.1252243514424123</v>
+        <v>0.1353450347659759</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08076028447506545</v>
+        <v>0.07545464016209635</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.7932726275858499</v>
+        <v>0.5949916604633358</v>
       </c>
       <c r="H24">
-        <v>0.003067308647571654</v>
+        <v>0.002072549701839232</v>
       </c>
       <c r="I24">
-        <v>0.008078310928917531</v>
+        <v>0.006032500657763507</v>
       </c>
       <c r="J24">
-        <v>0.575277292048483</v>
+        <v>0.4662954480313743</v>
       </c>
       <c r="K24">
-        <v>0.6291754092426913</v>
+        <v>0.474549016062813</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1886560491478519</v>
       </c>
       <c r="M24">
-        <v>1.379318200755023</v>
+        <v>0.1688194483106962</v>
       </c>
       <c r="N24">
-        <v>0.376827471887907</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.419538123281257</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.388645899847532</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.286033179177963</v>
+        <v>1.267584805354687</v>
       </c>
       <c r="C25">
-        <v>0.1056469864594973</v>
+        <v>0.1114024723734417</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06764372513810812</v>
+        <v>0.06383335048747796</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.7483338343862584</v>
+        <v>0.5817107638752219</v>
       </c>
       <c r="H25">
-        <v>0.006366003440545775</v>
+        <v>0.004564691948585997</v>
       </c>
       <c r="I25">
-        <v>0.0129886351485009</v>
+        <v>0.009512887647541213</v>
       </c>
       <c r="J25">
-        <v>0.5635831680023671</v>
+        <v>0.4749991827739137</v>
       </c>
       <c r="K25">
-        <v>0.6135079762179245</v>
+        <v>0.4824115767826029</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1983496625988259</v>
       </c>
       <c r="M25">
-        <v>1.132167156616987</v>
+        <v>0.1639574947514859</v>
       </c>
       <c r="N25">
-        <v>0.3106926946351933</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.165394428892</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3214473336106494</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
